--- a/tests/tests8/N 1.0.xlsx
+++ b/tests/tests8/N 1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="25">
   <si>
     <t>П0_ист</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>[0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1]</t>
   </si>
 </sst>
 </file>
@@ -522,37 +525,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.69660767672961</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>128.7340859470355</v>
+        <v>98.78643070691845</v>
       </c>
       <c r="D2">
-        <v>11.02763376071644</v>
+        <v>11.58227239646903</v>
       </c>
       <c r="E2">
         <v>358.2359476540324</v>
       </c>
       <c r="F2">
-        <v>11.95259397694541</v>
+        <v>5.951924374382552</v>
       </c>
       <c r="G2">
-        <v>112.2673847194781</v>
+        <v>89.65313672538583</v>
       </c>
       <c r="H2">
-        <v>2.891911015614967</v>
+        <v>6.270229627874334</v>
       </c>
       <c r="Q2">
-        <v>4.86472878696891</v>
+        <v>2.673291794392489</v>
       </c>
       <c r="R2">
-        <v>3.692924743073614</v>
+        <v>2.490613775751905</v>
       </c>
       <c r="S2" t="s">
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.0002655999999774394</v>
+        <v>0.0002943000000072971</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -560,37 +563,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>23.76599021161583</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>129.6584088195885</v>
+        <v>75.06396084646332</v>
       </c>
       <c r="D3">
-        <v>5.001143748173449</v>
+        <v>11.6438939213059</v>
       </c>
       <c r="E3">
         <v>358.3756546363367</v>
       </c>
       <c r="F3">
-        <v>14.28209217665922</v>
+        <v>6.95169295991495</v>
       </c>
       <c r="G3">
-        <v>80.95811467809287</v>
+        <v>68.70652283679173</v>
       </c>
       <c r="H3">
-        <v>2.346099394607178</v>
+        <v>8.027895882771569</v>
       </c>
       <c r="Q3">
-        <v>2.371518112545683</v>
+        <v>2.007508620992164</v>
       </c>
       <c r="R3">
-        <v>3.61590118888788</v>
+        <v>1.849445626380839</v>
       </c>
       <c r="S3" t="s">
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.000260299999979452</v>
+        <v>0.0002853000000015982</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -598,37 +601,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>24.61977059639017</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4.666721729020439</v>
+        <v>78.47908238556067</v>
       </c>
       <c r="D4">
-        <v>10.49662477878709</v>
+        <v>3.311114781934696</v>
       </c>
       <c r="E4">
         <v>0.4167578474054766</v>
       </c>
       <c r="F4">
-        <v>17.21642547474029</v>
+        <v>9.018731575404225</v>
       </c>
       <c r="G4">
-        <v>253.0678121579806</v>
+        <v>82.93801087897161</v>
       </c>
       <c r="H4">
-        <v>0.9673948252713683</v>
+        <v>2.326100143644016</v>
       </c>
       <c r="Q4">
-        <v>1.95837276635702</v>
+        <v>1.136996216876287</v>
       </c>
       <c r="R4">
-        <v>5.66493489488311</v>
+        <v>1.122925693196884</v>
       </c>
       <c r="S4" t="s">
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.0002593999999476182</v>
+        <v>0.0002775000000099226</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -636,37 +639,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>29.7859056158559</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>127.4666080712589</v>
+        <v>99.1436224634236</v>
       </c>
       <c r="D5">
-        <v>7.909047389129443</v>
+        <v>11.49777387141726</v>
       </c>
       <c r="E5">
         <v>358.2113715265697</v>
       </c>
       <c r="F5">
-        <v>12.56266257069075</v>
+        <v>5.770202785658594</v>
       </c>
       <c r="G5">
-        <v>102.6396522996343</v>
+        <v>90.5151718689319</v>
       </c>
       <c r="H5">
-        <v>1.989117963429252</v>
+        <v>5.791623043564108</v>
       </c>
       <c r="Q5">
-        <v>4.419536170329493</v>
+        <v>3.19735004406478</v>
       </c>
       <c r="R5">
-        <v>3.902807804599257</v>
+        <v>2.608542328619014</v>
       </c>
       <c r="S5" t="s">
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.0002559999999789397</v>
+        <v>0.0003152000000028465</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -674,37 +677,37 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>48.51634275561545</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>98.50180485163001</v>
+        <v>174.0653710224618</v>
       </c>
       <c r="D6">
-        <v>14.72684359964884</v>
+        <v>9.566786990108668</v>
       </c>
       <c r="E6">
         <v>359.9494382928571</v>
       </c>
       <c r="F6">
-        <v>15.11652520153352</v>
+        <v>8.907663760351484</v>
       </c>
       <c r="G6">
-        <v>138.4922801938067</v>
+        <v>175.2921897441025</v>
       </c>
       <c r="H6">
-        <v>2.89192401267461</v>
+        <v>8.202741445442944</v>
       </c>
       <c r="Q6">
-        <v>3.310696906627542</v>
+        <v>1.110670590893415</v>
       </c>
       <c r="R6">
-        <v>4.16884840853786</v>
+        <v>0.5818203464716127</v>
       </c>
       <c r="S6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T6">
-        <v>0.0002791999999658401</v>
+        <v>0.000278600000001461</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -712,37 +715,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>14.98969269903828</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>156.7318151119277</v>
+        <v>39.9587707961531</v>
       </c>
       <c r="D7">
-        <v>7.067191553394264</v>
+        <v>13.44878767412852</v>
       </c>
       <c r="E7">
         <v>359.5587725131149</v>
       </c>
       <c r="F7">
-        <v>12.8583155343198</v>
+        <v>7.261047303119548</v>
       </c>
       <c r="G7">
-        <v>157.1745985208618</v>
+        <v>35.1820941850474</v>
       </c>
       <c r="H7">
-        <v>5.652224296961406</v>
+        <v>9.550745757062876</v>
       </c>
       <c r="Q7">
-        <v>1.310803132072697</v>
+        <v>1.494820236611536</v>
       </c>
       <c r="R7">
-        <v>0.8588998457101464</v>
+        <v>1.410824323532179</v>
       </c>
       <c r="S7" t="s">
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.0002663999999867883</v>
+        <v>0.00061789999999462</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -750,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>45.17870681462007</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>59.7563649542119</v>
+        <v>160.7148272584803</v>
       </c>
       <c r="D8">
-        <v>13.21229123057832</v>
+        <v>6.983757663614126</v>
       </c>
       <c r="E8">
         <v>0.3117836734875126</v>
       </c>
       <c r="F8">
-        <v>15.58816185210123</v>
+        <v>7.668223539647285</v>
       </c>
       <c r="G8">
-        <v>136.2669595974161</v>
+        <v>166.5549774139021</v>
       </c>
       <c r="H8">
-        <v>1.613544024765041</v>
+        <v>4.603854342969795</v>
       </c>
       <c r="Q8">
-        <v>2.928538005566377</v>
+        <v>1.125121273020386</v>
       </c>
       <c r="R8">
-        <v>5.277010652580552</v>
+        <v>1.464521344375146</v>
       </c>
       <c r="S8" t="s">
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.000337800000011157</v>
+        <v>0.0002774999999957117</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -788,37 +791,37 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>8.433873021828074</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>140.3853826032206</v>
+        <v>13.73549208731229</v>
       </c>
       <c r="D9">
-        <v>9.384092314408935</v>
+        <v>12.35902550688138</v>
       </c>
       <c r="E9">
         <v>358.3094742961997</v>
       </c>
       <c r="F9">
-        <v>4.449085176442567</v>
+        <v>6.72677152646161</v>
       </c>
       <c r="G9">
-        <v>137.537345648641</v>
+        <v>10.37742463615163</v>
       </c>
       <c r="H9">
-        <v>3.523983719707516</v>
+        <v>11.86342822750757</v>
       </c>
       <c r="Q9">
-        <v>4.953615283702577</v>
+        <v>1.549132731302707</v>
       </c>
       <c r="R9">
-        <v>2.842470954317325</v>
+        <v>1.152371263275141</v>
       </c>
       <c r="S9" t="s">
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.0002458000000160609</v>
+        <v>0.0004540000000048394</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -826,37 +829,37 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>44.30432312563173</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>174.3373193077678</v>
+        <v>157.2172925025269</v>
       </c>
       <c r="D10">
-        <v>13.6919454021392</v>
+        <v>14.62248795385118</v>
       </c>
       <c r="E10">
         <v>359.9087952833802</v>
       </c>
       <c r="F10">
-        <v>20.75076305238034</v>
+        <v>8.165975447895381</v>
       </c>
       <c r="G10">
-        <v>185.9456151035332</v>
+        <v>157.9421148869312</v>
       </c>
       <c r="H10">
-        <v>10.04325039698173</v>
+        <v>11.40102178975774</v>
       </c>
       <c r="Q10">
-        <v>5.034950096873477</v>
+        <v>1.473016594248657</v>
       </c>
       <c r="R10">
-        <v>1.865272499485479</v>
+        <v>0.8973650770300878</v>
       </c>
       <c r="S10" t="s">
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.0002676000000292333</v>
+        <v>0.000279399999996599</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -864,37 +867,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>5.466836924856498</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>90.33742658677298</v>
+        <v>1.867347699425992</v>
       </c>
       <c r="D11">
-        <v>9.957732931341461</v>
+        <v>9.022495105784865</v>
       </c>
       <c r="E11">
         <v>359.9988914452878</v>
       </c>
       <c r="F11">
-        <v>3.441554510664133</v>
+        <v>9.115383893242878</v>
       </c>
       <c r="G11">
-        <v>81.46623863535669</v>
+        <v>358.7036920448201</v>
       </c>
       <c r="H11">
-        <v>5.04455370270219</v>
+        <v>6.80294473897894</v>
       </c>
       <c r="Q11">
-        <v>2.328635791201889</v>
+        <v>1.148902680389052</v>
       </c>
       <c r="R11">
-        <v>2.073010243885419</v>
+        <v>0.8418091393549789</v>
       </c>
       <c r="S11" t="s">
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.0002616000000443819</v>
+        <v>0.0002733000000034735</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -902,37 +905,37 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>39.70942894700357</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>3.73535088469227</v>
+        <v>138.8377157880143</v>
       </c>
       <c r="D12">
-        <v>11.33648234926275</v>
+        <v>3.249023392312818</v>
       </c>
       <c r="E12">
         <v>358.6684134958705</v>
       </c>
       <c r="F12">
-        <v>9.681069834624841</v>
+        <v>9.113959719369804</v>
       </c>
       <c r="G12">
-        <v>355.2022608809469</v>
+        <v>124.3594691909524</v>
       </c>
       <c r="H12">
-        <v>10.68073110096764</v>
+        <v>2.813933922209682</v>
       </c>
       <c r="Q12">
-        <v>3.003535820801416</v>
+        <v>1.249440342379411</v>
       </c>
       <c r="R12">
-        <v>1.951171772426944</v>
+        <v>1.177310979887248</v>
       </c>
       <c r="S12" t="s">
         <v>22</v>
       </c>
       <c r="T12">
-        <v>0.0002643000000261964</v>
+        <v>0.0003217000000006465</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -940,37 +943,37 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>13.11213599945461</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>3.505543467772425</v>
+        <v>32.44854399781845</v>
       </c>
       <c r="D13">
-        <v>9.632185264983447</v>
+        <v>3.233702897851495</v>
       </c>
       <c r="E13">
         <v>358.2505452586948</v>
       </c>
       <c r="F13">
-        <v>7.308162501631185</v>
+        <v>8.038022433236133</v>
       </c>
       <c r="G13">
-        <v>1.360420986875673</v>
+        <v>22.95751372782963</v>
       </c>
       <c r="H13">
-        <v>11.55564493651251</v>
+        <v>4.705406447704092</v>
       </c>
       <c r="Q13">
-        <v>1.927051930088431</v>
+        <v>1.604036050276342</v>
       </c>
       <c r="R13">
-        <v>1.727954551266054</v>
+        <v>2.139420772164366</v>
       </c>
       <c r="S13" t="s">
         <v>22</v>
       </c>
       <c r="T13">
-        <v>0.0002611000000456443</v>
+        <v>0.0002892999999914991</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -978,37 +981,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>11.93732790708526</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>133.2089453727729</v>
+        <v>27.74931162834103</v>
       </c>
       <c r="D14">
-        <v>7.633150151851346</v>
+        <v>11.88059635818486</v>
       </c>
       <c r="E14">
         <v>359.52701416851</v>
       </c>
       <c r="F14">
-        <v>9.528951556361795</v>
+        <v>7.862277165636219</v>
       </c>
       <c r="G14">
-        <v>132.7569700723053</v>
+        <v>24.35754209001384</v>
       </c>
       <c r="H14">
-        <v>5.469453531292708</v>
+        <v>9.113240369514761</v>
       </c>
       <c r="Q14">
-        <v>1.51916305242457</v>
+        <v>1.495644350861284</v>
       </c>
       <c r="R14">
-        <v>1.174449965227512</v>
+        <v>1.141654661679691</v>
       </c>
       <c r="S14" t="s">
         <v>22</v>
       </c>
       <c r="T14">
-        <v>0.0002666999999973996</v>
+        <v>0.0002771999999993113</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1016,37 +1019,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>39.99660847582191</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>42.75741960628422</v>
+        <v>139.9864339032876</v>
       </c>
       <c r="D15">
-        <v>13.24278532661369</v>
+        <v>5.850494640418948</v>
       </c>
       <c r="E15">
         <v>0.7123906620505903</v>
       </c>
       <c r="F15">
-        <v>16.06948767612385</v>
+        <v>8.089380614327796</v>
       </c>
       <c r="G15">
-        <v>166.365997516742</v>
+        <v>146.3298202817398</v>
       </c>
       <c r="H15">
-        <v>1.979273932936259</v>
+        <v>3.983871141994264</v>
       </c>
       <c r="Q15">
-        <v>3.057209686418816</v>
+        <v>1.1717439608095</v>
       </c>
       <c r="R15">
-        <v>6.391708651321768</v>
+        <v>1.452753795850487</v>
       </c>
       <c r="S15" t="s">
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.0002625000000193722</v>
+        <v>0.0002804000000082851</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1054,37 +1057,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>28.12745046977106</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>139.1697093742734</v>
+        <v>92.50980187908425</v>
       </c>
       <c r="D16">
-        <v>13.70427685724813</v>
+        <v>12.27798062495156</v>
       </c>
       <c r="E16">
         <v>358.448660888747</v>
       </c>
       <c r="F16">
-        <v>10.19844260031272</v>
+        <v>5.558702306150653</v>
       </c>
       <c r="G16">
-        <v>143.3759800109805</v>
+        <v>82.66557860268392</v>
       </c>
       <c r="H16">
-        <v>3.221344381858635</v>
+        <v>6.009242327023055</v>
       </c>
       <c r="Q16">
-        <v>8.129008816608589</v>
+        <v>3.408630112664996</v>
       </c>
       <c r="R16">
-        <v>3.467705594740489</v>
+        <v>2.650575478608946</v>
       </c>
       <c r="S16" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.0002614999999650536</v>
+        <v>0.0002785999999872502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1092,37 +1095,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>43.19679637708604</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>32.20126648577973</v>
+        <v>152.7871855083442</v>
       </c>
       <c r="D17">
-        <v>5.543632143064315</v>
+        <v>5.146751099051982</v>
       </c>
       <c r="E17">
         <v>0.3123284815435487</v>
       </c>
       <c r="F17">
-        <v>19.92635132938914</v>
+        <v>8.77270272973524</v>
       </c>
       <c r="G17">
-        <v>188.0678301233128</v>
+        <v>157.8411217158062</v>
       </c>
       <c r="H17">
-        <v>7.696746173698378</v>
+        <v>4.15073435870223</v>
       </c>
       <c r="Q17">
-        <v>4.325792853114345</v>
+        <v>1.158837934109674</v>
       </c>
       <c r="R17">
-        <v>5.843577565645527</v>
+        <v>0.8927885554164288</v>
       </c>
       <c r="S17" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.0002771999999708896</v>
+        <v>0.0002903000000031852</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1130,37 +1133,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>15.04809856190925</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>94.1694014521217</v>
+        <v>40.19239424763699</v>
       </c>
       <c r="D18">
-        <v>10.50701456581181</v>
+        <v>9.277960096808114</v>
       </c>
       <c r="E18">
         <v>359.872051278866</v>
       </c>
       <c r="F18">
-        <v>10.19543174236793</v>
+        <v>8.155858635489723</v>
       </c>
       <c r="G18">
-        <v>91.58641541277325</v>
+        <v>36.95743720142185</v>
       </c>
       <c r="H18">
-        <v>6.014371719457616</v>
+        <v>6.910257163624222</v>
       </c>
       <c r="Q18">
-        <v>1.422079310301496</v>
+        <v>1.195590782827275</v>
       </c>
       <c r="R18">
-        <v>1.702986367614452</v>
+        <v>1.058209247651196</v>
       </c>
       <c r="S18" t="s">
         <v>22</v>
       </c>
       <c r="T18">
-        <v>0.0003097999999681633</v>
+        <v>0.0002896999999961736</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1168,37 +1171,37 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>18.25992512091994</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>95.50561600895294</v>
+        <v>53.03970048367974</v>
       </c>
       <c r="D19">
-        <v>6.915207869474949</v>
+        <v>9.367041067263528</v>
       </c>
       <c r="E19">
         <v>359.7237341099787</v>
       </c>
       <c r="F19">
-        <v>12.74622532840127</v>
+        <v>7.879223792744117</v>
       </c>
       <c r="G19">
-        <v>95.51089595015652</v>
+        <v>48.81111446217638</v>
       </c>
       <c r="H19">
-        <v>3.87310784499821</v>
+        <v>6.885181023046368</v>
       </c>
       <c r="Q19">
-        <v>1.619620456465116</v>
+        <v>1.405370193985324</v>
       </c>
       <c r="R19">
-        <v>1.672245186425012</v>
+        <v>1.190635508668691</v>
       </c>
       <c r="S19" t="s">
         <v>22</v>
       </c>
       <c r="T19">
-        <v>0.0002761000000077729</v>
+        <v>0.0002827999999936992</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1206,37 +1209,37 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>34.26684087828163</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>90.98160727227172</v>
+        <v>117.0673635131265</v>
       </c>
       <c r="D20">
-        <v>13.78601470921552</v>
+        <v>9.065440484818115</v>
       </c>
       <c r="E20">
         <v>359.9205715561937</v>
       </c>
       <c r="F20">
-        <v>13.22440241714961</v>
+        <v>6.590581870160651</v>
       </c>
       <c r="G20">
-        <v>100.3537746312235</v>
+        <v>114.329464294831</v>
       </c>
       <c r="H20">
-        <v>3.141417738663414</v>
+        <v>4.768864263651849</v>
       </c>
       <c r="Q20">
-        <v>3.060390539076621</v>
+        <v>1.715251002029868</v>
       </c>
       <c r="R20">
-        <v>3.207946257244416</v>
+        <v>1.841418898082851</v>
       </c>
       <c r="S20" t="s">
         <v>22</v>
       </c>
       <c r="T20">
-        <v>0.0002673999999842636</v>
+        <v>0.0002713999999883754</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1244,37 +1247,37 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>9.389012078725322</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>137.0249490014741</v>
+        <v>17.55604831490129</v>
       </c>
       <c r="D21">
-        <v>7.46937973166327</v>
+        <v>12.13499660009828</v>
       </c>
       <c r="E21">
         <v>359.7789967373178</v>
       </c>
       <c r="F21">
-        <v>6.991288475683783</v>
+        <v>7.749535075980216</v>
       </c>
       <c r="G21">
-        <v>137.1063385944255</v>
+        <v>13.7561372232993</v>
       </c>
       <c r="H21">
-        <v>4.683269850391875</v>
+        <v>9.119914047207413</v>
       </c>
       <c r="Q21">
-        <v>1.456908947243811</v>
+        <v>1.381378952113885</v>
       </c>
       <c r="R21">
-        <v>1.415421836239969</v>
+        <v>1.14648046794379</v>
       </c>
       <c r="S21" t="s">
         <v>22</v>
       </c>
       <c r="T21">
-        <v>0.0002560000000357832</v>
+        <v>0.0002910999999983233</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1282,37 +1285,37 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>31.46588604847734</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>161.5884710236952</v>
+        <v>105.8635441939094</v>
       </c>
       <c r="D22">
-        <v>13.91530729474708</v>
+        <v>13.77256473491301</v>
       </c>
       <c r="E22">
         <v>359.1161068873827</v>
       </c>
       <c r="F22">
-        <v>17.83023634965421</v>
+        <v>4.644304014387558</v>
       </c>
       <c r="G22">
-        <v>164.0740692741628</v>
+        <v>95.59009687277086</v>
       </c>
       <c r="H22">
-        <v>6.747211951985975</v>
+        <v>4.862829313822906</v>
       </c>
       <c r="Q22">
-        <v>2.460710531343092</v>
+        <v>3.210505277087235</v>
       </c>
       <c r="R22">
-        <v>2.293165950737847</v>
+        <v>2.987723252002753</v>
       </c>
       <c r="S22" t="s">
         <v>22</v>
       </c>
       <c r="T22">
-        <v>0.0002749999999878128</v>
+        <v>0.0002744000000092228</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1320,37 +1323,37 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>7.192619636410728</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>52.03973876216703</v>
+        <v>8.770478545642913</v>
       </c>
       <c r="D23">
-        <v>12.2096634683123</v>
+        <v>6.469315917477802</v>
       </c>
       <c r="E23">
         <v>0.05196424950553487</v>
       </c>
       <c r="F23">
-        <v>5.451065887103097</v>
+        <v>8.887106805336666</v>
       </c>
       <c r="G23">
-        <v>47.46697175420307</v>
+        <v>4.663686601712077</v>
       </c>
       <c r="H23">
-        <v>8.5178909211894</v>
+        <v>4.913392466446124</v>
       </c>
       <c r="Q23">
-        <v>1.472862983996005</v>
+        <v>1.204092431815732</v>
       </c>
       <c r="R23">
-        <v>1.286773359144461</v>
+        <v>0.9024135309042847</v>
       </c>
       <c r="S23" t="s">
         <v>22</v>
       </c>
       <c r="T23">
-        <v>0.0002666999999973996</v>
+        <v>0.0002838000000053853</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1358,37 +1361,37 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>14.38072418114792</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>86.70259111740586</v>
+        <v>37.52289672459167</v>
       </c>
       <c r="D24">
-        <v>9.205380353143747</v>
+        <v>8.78017274116039</v>
       </c>
       <c r="E24">
         <v>0.09194991986519468</v>
       </c>
       <c r="F24">
-        <v>10.01999405483586</v>
+        <v>8.116338634127644</v>
       </c>
       <c r="G24">
-        <v>83.74932572808733</v>
+        <v>33.47906460954072</v>
       </c>
       <c r="H24">
-        <v>5.294834022703117</v>
+        <v>6.402699832382966</v>
       </c>
       <c r="Q24">
-        <v>1.426475718977258</v>
+        <v>1.246267246168479</v>
       </c>
       <c r="R24">
-        <v>1.664237128331816</v>
+        <v>1.114970503947742</v>
       </c>
       <c r="S24" t="s">
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.0002618999999981497</v>
+        <v>0.0002783999999991238</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1396,37 +1399,37 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>28.27840477309651</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>170.4532686866665</v>
+        <v>93.11361909238606</v>
       </c>
       <c r="D25">
-        <v>12.65459759396907</v>
+        <v>14.36355124577777</v>
       </c>
       <c r="E25">
         <v>359.3330119436465</v>
       </c>
       <c r="F25">
-        <v>19.22081368019204</v>
+        <v>5.166460944438111</v>
       </c>
       <c r="G25">
-        <v>172.1588424425477</v>
+        <v>84.26391060071943</v>
       </c>
       <c r="H25">
-        <v>7.681697158146978</v>
+        <v>6.088550547216988</v>
       </c>
       <c r="Q25">
-        <v>1.926538421575656</v>
+        <v>2.693191726670757</v>
       </c>
       <c r="R25">
-        <v>1.725650341928277</v>
+        <v>2.633857212880386</v>
       </c>
       <c r="S25" t="s">
         <v>22</v>
       </c>
       <c r="T25">
-        <v>0.0002622999999744025</v>
+        <v>0.0002768000000088477</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1434,37 +1437,37 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>48.20077865011633</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>125.9121689909237</v>
+        <v>172.8031146004653</v>
       </c>
       <c r="D26">
-        <v>14.99867292623879</v>
+        <v>11.39414459939491</v>
       </c>
       <c r="E26">
         <v>358.6707878273508</v>
       </c>
       <c r="F26">
-        <v>8.263371419253478</v>
+        <v>8.16530336109561</v>
       </c>
       <c r="G26">
-        <v>189.1166577795148</v>
+        <v>172.9773853981177</v>
       </c>
       <c r="H26">
-        <v>1.68215230208009</v>
+        <v>8.920129763549557</v>
       </c>
       <c r="Q26">
-        <v>24.28445179812716</v>
+        <v>2.691527219802717</v>
       </c>
       <c r="R26">
-        <v>5.512970953920249</v>
+        <v>1.185268511944439</v>
       </c>
       <c r="S26" t="s">
         <v>22</v>
       </c>
       <c r="T26">
-        <v>0.0002640000000155851</v>
+        <v>0.0002872999999965486</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1472,37 +1475,37 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>44.15558614822454</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>104.8098471610608</v>
+        <v>156.6223445928981</v>
       </c>
       <c r="D27">
-        <v>7.78838940701069</v>
+        <v>9.987323144070718</v>
       </c>
       <c r="E27">
         <v>359.7717269103339</v>
       </c>
       <c r="F27">
-        <v>15.32015508067393</v>
+        <v>7.13454210565444</v>
       </c>
       <c r="G27">
-        <v>175.421778976187</v>
+        <v>158.7695971639026</v>
       </c>
       <c r="H27">
-        <v>3.432052617576843</v>
+        <v>6.200020415132396</v>
       </c>
       <c r="Q27">
-        <v>4.663036460868581</v>
+        <v>1.545277050708122</v>
       </c>
       <c r="R27">
-        <v>4.309112378082292</v>
+        <v>1.536353385432402</v>
       </c>
       <c r="S27" t="s">
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.000441699999953471</v>
+        <v>0.0002765999999922997</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1510,37 +1513,37 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>18.85707286812369</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>93.49046627495413</v>
+        <v>55.42829147249475</v>
       </c>
       <c r="D28">
-        <v>12.68297661537973</v>
+        <v>9.232697751663608</v>
       </c>
       <c r="E28">
         <v>359.80400678834</v>
       </c>
       <c r="F28">
-        <v>11.69102050326249</v>
+        <v>8.314769014557797</v>
       </c>
       <c r="G28">
-        <v>92.11907608573709</v>
+        <v>53.14875303064934</v>
       </c>
       <c r="H28">
-        <v>6.477538692956955</v>
+        <v>6.984623028907495</v>
       </c>
       <c r="Q28">
-        <v>1.578831415731189</v>
+        <v>1.163275479977407</v>
       </c>
       <c r="R28">
-        <v>1.939831103724024</v>
+        <v>0.9955849886112715</v>
       </c>
       <c r="S28" t="s">
         <v>22</v>
       </c>
       <c r="T28">
-        <v>0.0002738000000022112</v>
+        <v>0.0002810000000010859</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1548,37 +1551,37 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>24.15746347335031</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>146.6250732890195</v>
+        <v>76.62985389340125</v>
       </c>
       <c r="D29">
-        <v>12.3539729019968</v>
+        <v>12.77500488593463</v>
       </c>
       <c r="E29">
         <v>358.7143945847677</v>
       </c>
       <c r="F29">
-        <v>13.67899291201308</v>
+        <v>6.383690361564546</v>
       </c>
       <c r="G29">
-        <v>146.2841286657844</v>
+        <v>69.47630036184798</v>
       </c>
       <c r="H29">
-        <v>5.804333889606007</v>
+        <v>7.696538012402353</v>
       </c>
       <c r="Q29">
-        <v>3.209535230966563</v>
+        <v>2.222627882607618</v>
       </c>
       <c r="R29">
-        <v>2.378264900324616</v>
+        <v>2.096787218832755</v>
       </c>
       <c r="S29" t="s">
         <v>22</v>
       </c>
       <c r="T29">
-        <v>0.0002579999999738902</v>
+        <v>0.000278600000001461</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1586,37 +1589,37 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>37.80561840301036</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>101.0231284189754</v>
+        <v>131.2224736120414</v>
       </c>
       <c r="D30">
-        <v>6.249670920092409</v>
+        <v>9.734875227931694</v>
       </c>
       <c r="E30">
         <v>359.55366762213</v>
       </c>
       <c r="F30">
-        <v>15.20059440873743</v>
+        <v>5.93554771442489</v>
       </c>
       <c r="G30">
-        <v>157.2988617604187</v>
+        <v>129.2465192182031</v>
       </c>
       <c r="H30">
-        <v>1.805690362919417</v>
+        <v>4.401098903095102</v>
       </c>
       <c r="Q30">
-        <v>3.504639535613035</v>
+        <v>2.240080702322076</v>
       </c>
       <c r="R30">
-        <v>4.292708309000657</v>
+        <v>2.208150475443539</v>
       </c>
       <c r="S30" t="s">
         <v>22</v>
       </c>
       <c r="T30">
-        <v>0.0003785000000107175</v>
+        <v>0.0002779000000003862</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1624,37 +1627,37 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>43.86919935065373</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>51.28307374097282</v>
+        <v>155.4767974026149</v>
       </c>
       <c r="D31">
-        <v>5.73256388083736</v>
+        <v>6.418871582731521</v>
       </c>
       <c r="E31">
         <v>0.417482126304551</v>
       </c>
       <c r="F31">
-        <v>17.9761629576109</v>
+        <v>7.736620587030816</v>
       </c>
       <c r="G31">
-        <v>187.8614925968855</v>
+        <v>162.2669284257843</v>
       </c>
       <c r="H31">
-        <v>7.205021236882832</v>
+        <v>4.219002258396238</v>
       </c>
       <c r="Q31">
-        <v>5.655413720365663</v>
+        <v>1.474018781264293</v>
       </c>
       <c r="R31">
-        <v>5.144698259362907</v>
+        <v>1.508151238283488</v>
       </c>
       <c r="S31" t="s">
         <v>22</v>
       </c>
       <c r="T31">
-        <v>0.0002531000000089989</v>
+        <v>0.0002904999999913116</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1662,37 +1665,37 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>33.98645912307507</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>68.53472813432097</v>
+        <v>115.9458364923003</v>
       </c>
       <c r="D32">
-        <v>11.63047905335669</v>
+        <v>7.568981875621398</v>
       </c>
       <c r="E32">
         <v>1.2640526647764</v>
       </c>
       <c r="F32">
-        <v>14.82204982450974</v>
+        <v>7.040384441065498</v>
       </c>
       <c r="G32">
-        <v>149.698348096823</v>
+        <v>118.6327851738633</v>
       </c>
       <c r="H32">
-        <v>2.519902697399733</v>
+        <v>3.900116475833972</v>
       </c>
       <c r="Q32">
-        <v>2.987820899232766</v>
+        <v>1.494130852095484</v>
       </c>
       <c r="R32">
-        <v>5.2432505161465</v>
+        <v>2.08826555813832</v>
       </c>
       <c r="S32" t="s">
         <v>22</v>
       </c>
       <c r="T32">
-        <v>0.000260100000048169</v>
+        <v>0.0002822000000008984</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1700,37 +1703,37 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>17.8724219747232</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>172.45900197342</v>
+        <v>51.48968789889281</v>
       </c>
       <c r="D33">
-        <v>12.70312932218878</v>
+        <v>14.497266798228</v>
       </c>
       <c r="E33">
         <v>0.4147572142515962</v>
       </c>
       <c r="F33">
-        <v>12.34985839703522</v>
+        <v>6.980558828523112</v>
       </c>
       <c r="G33">
-        <v>179.5487145439741</v>
+        <v>46.6613062644451</v>
       </c>
       <c r="H33">
-        <v>8.108622633205062</v>
+        <v>8.846626272116092</v>
       </c>
       <c r="Q33">
-        <v>1.613655767808631</v>
+        <v>1.538776851052509</v>
       </c>
       <c r="R33">
-        <v>1.700138387326965</v>
+        <v>1.702071083440484</v>
       </c>
       <c r="S33" t="s">
         <v>22</v>
       </c>
       <c r="T33">
-        <v>0.0004173999999466105</v>
+        <v>0.000286000000002673</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1738,37 +1741,37 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>43.65001702818679</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>67.08800789555039</v>
+        <v>154.6000681127472</v>
       </c>
       <c r="D34">
-        <v>10.55128777998597</v>
+        <v>7.472533859703359</v>
       </c>
       <c r="E34">
         <v>0.3488944509894297</v>
       </c>
       <c r="F34">
-        <v>15.67278737491163</v>
+        <v>7.123993046857602</v>
       </c>
       <c r="G34">
-        <v>160.9689137957068</v>
+        <v>160.3659641239433</v>
       </c>
       <c r="H34">
-        <v>2.231130637414739</v>
+        <v>4.336605359636298</v>
       </c>
       <c r="Q34">
-        <v>3.32377113080405</v>
+        <v>1.249887492963785</v>
       </c>
       <c r="R34">
-        <v>5.473847347503209</v>
+        <v>1.759857158105438</v>
       </c>
       <c r="S34" t="s">
         <v>22</v>
       </c>
       <c r="T34">
-        <v>0.000325999999972737</v>
+        <v>0.0002692999999993617</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1776,37 +1779,37 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>16.18295573469785</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>80.99557578914319</v>
+        <v>44.73182293879139</v>
       </c>
       <c r="D35">
-        <v>9.109408029965408</v>
+        <v>8.399705052609546</v>
       </c>
       <c r="E35">
         <v>0.3188535051081249</v>
       </c>
       <c r="F35">
-        <v>11.43002576469577</v>
+        <v>8.452963858555034</v>
       </c>
       <c r="G35">
-        <v>81.59396776527187</v>
+        <v>42.27607596903874</v>
       </c>
       <c r="H35">
-        <v>5.010864752803609</v>
+        <v>6.055633538218514</v>
       </c>
       <c r="Q35">
-        <v>1.354916028588451</v>
+        <v>1.154292017763098</v>
       </c>
       <c r="R35">
-        <v>1.708983293444</v>
+        <v>1.096611236047178</v>
       </c>
       <c r="S35" t="s">
         <v>22</v>
       </c>
       <c r="T35">
-        <v>0.000271999999995387</v>
+        <v>0.0002742000000068856</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -1814,37 +1817,37 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>6.735275639663435</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>140.4180828944415</v>
+        <v>6.941102558653737</v>
       </c>
       <c r="D36">
-        <v>5.927037553341333</v>
+        <v>12.3612055262961</v>
       </c>
       <c r="E36">
         <v>359.7561648993723</v>
       </c>
       <c r="F36">
-        <v>5.052723089902637</v>
+        <v>8.053030316250375</v>
       </c>
       <c r="G36">
-        <v>140.5873669547291</v>
+        <v>3.864356926334642</v>
       </c>
       <c r="H36">
-        <v>3.599279639614038</v>
+        <v>9.434086166394875</v>
       </c>
       <c r="Q36">
-        <v>1.44123577066461</v>
+        <v>1.261287715965024</v>
       </c>
       <c r="R36">
-        <v>1.463382867795967</v>
+        <v>1.05436950982817</v>
       </c>
       <c r="S36" t="s">
         <v>22</v>
       </c>
       <c r="T36">
-        <v>0.0004098999999655462</v>
+        <v>0.0002819999999985612</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -1852,37 +1855,37 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>25.61247267008407</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>55.50292925368409</v>
+        <v>82.4498906803363</v>
       </c>
       <c r="D37">
-        <v>7.314870450355623</v>
+        <v>6.70019528357894</v>
       </c>
       <c r="E37">
         <v>1.889736710087848</v>
       </c>
       <c r="F37">
-        <v>14.94815254045642</v>
+        <v>7.632736090322749</v>
       </c>
       <c r="G37">
-        <v>179.8967802545382</v>
+        <v>85.37829234709535</v>
       </c>
       <c r="H37">
-        <v>3.828879104866891</v>
+        <v>3.315143540454481</v>
       </c>
       <c r="Q37">
-        <v>2.965709877425406</v>
+        <v>1.526977011141626</v>
       </c>
       <c r="R37">
-        <v>5.467639725948843</v>
+        <v>2.203230399123856</v>
       </c>
       <c r="S37" t="s">
         <v>22</v>
       </c>
       <c r="T37">
-        <v>0.0002662999999643034</v>
+        <v>0.0002702000000027738</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -1890,37 +1893,37 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>37.78282362180765</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>108.2905582266384</v>
+        <v>131.1312944872306</v>
       </c>
       <c r="D38">
-        <v>14.52180667406014</v>
+        <v>10.21937054844256</v>
       </c>
       <c r="E38">
         <v>359.3235867342455</v>
       </c>
       <c r="F38">
-        <v>12.39318956383758</v>
+        <v>5.449921962481642</v>
       </c>
       <c r="G38">
-        <v>114.1215377927195</v>
+        <v>128.303952554627</v>
       </c>
       <c r="H38">
-        <v>2.850387348726702</v>
+        <v>4.064528735021732</v>
       </c>
       <c r="Q38">
-        <v>4.447480675869387</v>
+        <v>2.719869132132327</v>
       </c>
       <c r="R38">
-        <v>3.44415101349654</v>
+        <v>2.503813467191235</v>
       </c>
       <c r="S38" t="s">
         <v>22</v>
       </c>
       <c r="T38">
-        <v>0.0002572000000213848</v>
+        <v>0.0002774000000016486</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -1928,37 +1931,37 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>47.50234712857881</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>83.53767137479336</v>
+        <v>170.0093885143152</v>
       </c>
       <c r="D39">
-        <v>6.927950289571577</v>
+        <v>8.569178091652891</v>
       </c>
       <c r="E39">
         <v>0.05446361233749655</v>
       </c>
       <c r="F39">
-        <v>17.48534118874215</v>
+        <v>8.353943427571499</v>
       </c>
       <c r="G39">
-        <v>179.9413608713061</v>
+        <v>172.5346639398057</v>
       </c>
       <c r="H39">
-        <v>4.332275792994488</v>
+        <v>6.644975089756016</v>
       </c>
       <c r="Q39">
-        <v>3.541874231165135</v>
+        <v>1.160666133372709</v>
       </c>
       <c r="R39">
-        <v>4.413551930725826</v>
+        <v>0.9124638182512227</v>
       </c>
       <c r="S39" t="s">
         <v>22</v>
       </c>
       <c r="T39">
-        <v>0.0004696000000308231</v>
+        <v>0.0002668999999997368</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -1966,37 +1969,37 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>22.31479037825347</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>154.7474123863114</v>
+        <v>69.25916151301388</v>
       </c>
       <c r="D40">
-        <v>14.4419963580742</v>
+        <v>13.31649415908743</v>
       </c>
       <c r="E40">
         <v>358.9912943518833</v>
       </c>
       <c r="F40">
-        <v>13.74858277438741</v>
+        <v>6.78239089454089</v>
       </c>
       <c r="G40">
-        <v>156.261405144246</v>
+        <v>63.63942773209042</v>
       </c>
       <c r="H40">
-        <v>7.834219280803714</v>
+        <v>8.608350007586578</v>
       </c>
       <c r="Q40">
-        <v>2.586550062718085</v>
+        <v>1.713986440762249</v>
       </c>
       <c r="R40">
-        <v>2.073674257181262</v>
+        <v>1.812831271737958</v>
       </c>
       <c r="S40" t="s">
         <v>22</v>
       </c>
       <c r="T40">
-        <v>0.0002610000000231594</v>
+        <v>0.0002801999999917371</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2004,37 +2007,37 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>29.61001202654096</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>143.6218238308689</v>
+        <v>98.44004810616384</v>
       </c>
       <c r="D41">
-        <v>13.20401879898381</v>
+        <v>12.57478825539126</v>
       </c>
       <c r="E41">
         <v>358.5951604339781</v>
       </c>
       <c r="F41">
-        <v>12.09155800076736</v>
+        <v>5.203897802336726</v>
       </c>
       <c r="G41">
-        <v>149.6935209696563</v>
+        <v>88.49170641478496</v>
       </c>
       <c r="H41">
-        <v>3.919281827266755</v>
+        <v>5.361860501256145</v>
       </c>
       <c r="Q41">
-        <v>5.942671145514522</v>
+        <v>3.647861277818478</v>
       </c>
       <c r="R41">
-        <v>3.24700592667079</v>
+        <v>2.83327460748954</v>
       </c>
       <c r="S41" t="s">
         <v>22</v>
       </c>
       <c r="T41">
-        <v>0.0002626000000418571</v>
+        <v>0.0003303999999957341</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2042,37 +2045,37 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>23.34591626361287</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>9.965887220134814</v>
+        <v>73.3836650544515</v>
       </c>
       <c r="D42">
-        <v>12.88534877486753</v>
+        <v>3.664392481342321</v>
       </c>
       <c r="E42">
         <v>0.6075476972112318</v>
       </c>
       <c r="F42">
-        <v>16.56898181526032</v>
+        <v>8.997987869583859</v>
       </c>
       <c r="G42">
-        <v>214.7258512285683</v>
+        <v>79.57553165695946</v>
       </c>
       <c r="H42">
-        <v>0.9858423791158319</v>
+        <v>2.404502785055146</v>
       </c>
       <c r="Q42">
-        <v>2.270588412988467</v>
+        <v>1.247235804819208</v>
       </c>
       <c r="R42">
-        <v>6.825421706669658</v>
+        <v>1.333234433110942</v>
       </c>
       <c r="S42" t="s">
         <v>22</v>
       </c>
       <c r="T42">
-        <v>0.000278600000001461</v>
+        <v>0.0007915999999994483</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2080,37 +2083,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>16.29156306852231</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>8.297247721070116</v>
+        <v>45.16625227408922</v>
       </c>
       <c r="D43">
-        <v>11.76816241110558</v>
+        <v>3.553149848071341</v>
       </c>
       <c r="E43">
         <v>0.2707123230673222</v>
       </c>
       <c r="F43">
-        <v>12.70525597337325</v>
+        <v>9.123014330864924</v>
       </c>
       <c r="G43">
-        <v>1.375809219930594</v>
+        <v>43.95237485043707</v>
       </c>
       <c r="H43">
-        <v>5.0450548298256</v>
+        <v>2.558494631500815</v>
       </c>
       <c r="Q43">
-        <v>1.60998242327173</v>
+        <v>1.21196152713819</v>
       </c>
       <c r="R43">
-        <v>2.035842749487931</v>
+        <v>0.9440297594171179</v>
       </c>
       <c r="S43" t="s">
         <v>22</v>
       </c>
       <c r="T43">
-        <v>0.0002690999999686028</v>
+        <v>0.0003283000000067204</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2118,37 +2121,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>21.85430534813131</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>171.1285751537849</v>
+        <v>67.41722139252525</v>
       </c>
       <c r="D44">
-        <v>12.31993941811405</v>
+        <v>14.40857167691899</v>
       </c>
       <c r="E44">
         <v>359.5032858469888</v>
       </c>
       <c r="F44">
-        <v>17.11560204514946</v>
+        <v>6.621809434760653</v>
       </c>
       <c r="G44">
-        <v>172.8802685207418</v>
+        <v>61.37547558834459</v>
       </c>
       <c r="H44">
-        <v>9.152887934186541</v>
+        <v>8.957214850511402</v>
       </c>
       <c r="Q44">
-        <v>1.737397289829304</v>
+        <v>1.581486812141649</v>
       </c>
       <c r="R44">
-        <v>1.17202464784606</v>
+        <v>1.784107035821175</v>
       </c>
       <c r="S44" t="s">
         <v>22</v>
       </c>
       <c r="T44">
-        <v>0.0002682000000504559</v>
+        <v>0.0006697999999971671</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2156,37 +2159,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>10.17745548754005</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>109.6319770703066</v>
+        <v>20.70982195016021</v>
       </c>
       <c r="D45">
-        <v>6.333909641859883</v>
+        <v>10.30879847135378</v>
       </c>
       <c r="E45">
         <v>359.7426000746553</v>
       </c>
       <c r="F45">
-        <v>8.383025960168901</v>
+        <v>8.175094562573451</v>
       </c>
       <c r="G45">
-        <v>107.4591807629547</v>
+        <v>17.33154226014925</v>
       </c>
       <c r="H45">
-        <v>4.661340053159057</v>
+        <v>8.179631784966917</v>
       </c>
       <c r="Q45">
-        <v>1.312580640123416</v>
+        <v>1.300175467816891</v>
       </c>
       <c r="R45">
-        <v>1.072691589579883</v>
+        <v>0.9693048363350394</v>
       </c>
       <c r="S45" t="s">
         <v>22</v>
       </c>
       <c r="T45">
-        <v>0.0002721000000178719</v>
+        <v>0.0002967999999867743</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2194,37 +2197,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>42.56789668995422</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>18.86329878657655</v>
+        <v>150.2715867598169</v>
       </c>
       <c r="D46">
-        <v>12.44640481679518</v>
+        <v>4.257553252438437</v>
       </c>
       <c r="E46">
         <v>0.7506147172558701</v>
       </c>
       <c r="F46">
-        <v>20.70403709912176</v>
+        <v>8.58808866575137</v>
       </c>
       <c r="G46">
-        <v>187.8957606259205</v>
+        <v>162.5657492230052</v>
       </c>
       <c r="H46">
-        <v>9.294748492264675</v>
+        <v>3.355136991240614</v>
       </c>
       <c r="Q46">
-        <v>4.650561238587288</v>
+        <v>1.291538432189841</v>
       </c>
       <c r="R46">
-        <v>5.902549422914012</v>
+        <v>1.260217649505575</v>
       </c>
       <c r="S46" t="s">
         <v>22</v>
       </c>
       <c r="T46">
-        <v>0.0002850999999850501</v>
+        <v>0.00104650000000106</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2232,37 +2235,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>49.50551810640201</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>98.91805083205058</v>
+        <v>178.022072425608</v>
       </c>
       <c r="D47">
-        <v>7.814473019550628</v>
+        <v>9.594536722136706</v>
       </c>
       <c r="E47">
         <v>359.9736252271504</v>
       </c>
       <c r="F47">
-        <v>17.44024439678869</v>
+        <v>9.252187032540617</v>
       </c>
       <c r="G47">
-        <v>175.1057029710358</v>
+        <v>178.8521370812327</v>
       </c>
       <c r="H47">
-        <v>3.775109163852354</v>
+        <v>8.668293076687085</v>
       </c>
       <c r="Q47">
-        <v>3.208075819671</v>
+        <v>1.026656094258102</v>
       </c>
       <c r="R47">
-        <v>4.283073576291065</v>
+        <v>0.3933274351514937</v>
       </c>
       <c r="S47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T47">
-        <v>0.0003750999999851956</v>
+        <v>0.0002800000000036107</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2270,37 +2273,37 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>40.27245578625878</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>114.2700670894914</v>
+        <v>141.0898231450351</v>
       </c>
       <c r="D48">
-        <v>7.490430915157489</v>
+        <v>10.61800447263276</v>
       </c>
       <c r="E48">
         <v>359.4151241601295</v>
       </c>
       <c r="F48">
-        <v>15.50828605994892</v>
+        <v>5.419635891247148</v>
       </c>
       <c r="G48">
-        <v>154.4264224874715</v>
+        <v>141.1706712060954</v>
       </c>
       <c r="H48">
-        <v>2.180202699367144</v>
+        <v>4.239823620118462</v>
       </c>
       <c r="Q48">
-        <v>3.244174876727675</v>
+        <v>2.560245245605302</v>
       </c>
       <c r="R48">
-        <v>3.947324884558531</v>
+        <v>2.413371363135038</v>
       </c>
       <c r="S48" t="s">
         <v>22</v>
       </c>
       <c r="T48">
-        <v>0.0002809999999726642</v>
+        <v>0.0002739000000104852</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2308,37 +2311,37 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>10.10698123521423</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>175.4069569985622</v>
+        <v>20.42792494085692</v>
       </c>
       <c r="D49">
-        <v>12.28734633501106</v>
+        <v>14.69379713323748</v>
       </c>
       <c r="E49">
         <v>0.8480094757661352</v>
       </c>
       <c r="F49">
-        <v>9.211987289049363</v>
+        <v>8.422642992837563</v>
       </c>
       <c r="G49">
-        <v>177.1444620924743</v>
+        <v>17.60391370611552</v>
       </c>
       <c r="H49">
-        <v>10.92395471845643</v>
+        <v>9.112081229867774</v>
       </c>
       <c r="Q49">
-        <v>1.701997210903116</v>
+        <v>1.266706191950302</v>
       </c>
       <c r="R49">
-        <v>0.6804242433903519</v>
+        <v>1.495167623668611</v>
       </c>
       <c r="S49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T49">
-        <v>0.0006606999999689833</v>
+        <v>0.000293400000003885</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2346,37 +2349,37 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>5.787062191901868</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>160.4831880924465</v>
+        <v>3.148248767607473</v>
       </c>
       <c r="D50">
-        <v>7.848611674739184</v>
+        <v>13.6988792061631</v>
       </c>
       <c r="E50">
         <v>0.9936313199284542</v>
       </c>
       <c r="F50">
-        <v>5.300448672108892</v>
+        <v>9.923803041716063</v>
       </c>
       <c r="G50">
-        <v>162.1267179446842</v>
+        <v>357.2277109119087</v>
       </c>
       <c r="H50">
-        <v>6.86225613635212</v>
+        <v>7.146310206013569</v>
       </c>
       <c r="Q50">
-        <v>1.533435356762361</v>
+        <v>1.4244631710553</v>
       </c>
       <c r="R50">
-        <v>0.7438216935705553</v>
+        <v>1.604942869452094</v>
       </c>
       <c r="S50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T50">
-        <v>0.000292399999977988</v>
+        <v>0.0007137000000057014</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2384,37 +2387,37 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>18.54340051351615</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>44.4711297531266</v>
+        <v>54.17360205406462</v>
       </c>
       <c r="D51">
-        <v>14.26335135059176</v>
+        <v>5.964741983541773</v>
       </c>
       <c r="E51">
         <v>1.043159078206592</v>
       </c>
       <c r="F51">
-        <v>11.18777775821508</v>
+        <v>8.600017624294127</v>
       </c>
       <c r="G51">
-        <v>44.35062192808915</v>
+        <v>56.06440989986096</v>
       </c>
       <c r="H51">
-        <v>4.777419906865132</v>
+        <v>3.431389730102815</v>
       </c>
       <c r="Q51">
-        <v>1.988320946729761</v>
+        <v>1.371577070299957</v>
       </c>
       <c r="R51">
-        <v>2.587560926505064</v>
+        <v>1.60319331156101</v>
       </c>
       <c r="S51" t="s">
         <v>22</v>
       </c>
       <c r="T51">
-        <v>0.000271999999995387</v>
+        <v>0.0002874999999988859</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -2422,37 +2425,37 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>27.25707404921096</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>41.05495880088052</v>
+        <v>89.02829619684385</v>
       </c>
       <c r="D52">
-        <v>7.554739237572114</v>
+        <v>5.736997253392035</v>
       </c>
       <c r="E52">
         <v>1.560352108683647</v>
       </c>
       <c r="F52">
-        <v>16.25111229854492</v>
+        <v>7.849155632518135</v>
       </c>
       <c r="G52">
-        <v>184.3208181184929</v>
+        <v>93.75041152696498</v>
       </c>
       <c r="H52">
-        <v>4.26013899455991</v>
+        <v>3.019816398200669</v>
       </c>
       <c r="Q52">
-        <v>2.881756206197108</v>
+        <v>1.481129730651128</v>
       </c>
       <c r="R52">
-        <v>5.734950187833978</v>
+        <v>2.050675524246925</v>
       </c>
       <c r="S52" t="s">
         <v>22</v>
       </c>
       <c r="T52">
-        <v>0.0002768999999602784</v>
+        <v>0.0003060000000090213</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2460,37 +2463,37 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>35.40791369765985</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>8.048192796530287</v>
+        <v>121.6316547906394</v>
       </c>
       <c r="D53">
-        <v>8.433036725425923</v>
+        <v>3.536546186435352</v>
       </c>
       <c r="E53">
         <v>0.2905031733486384</v>
       </c>
       <c r="F53">
-        <v>19.40640675803244</v>
+        <v>9.078804929672776</v>
       </c>
       <c r="G53">
-        <v>194.3966343346258</v>
+        <v>127.6453387579706</v>
       </c>
       <c r="H53">
-        <v>5.107858203877209</v>
+        <v>2.837095299433543</v>
       </c>
       <c r="Q53">
-        <v>3.325713875824081</v>
+        <v>1.147637672897073</v>
       </c>
       <c r="R53">
-        <v>6.152872521787831</v>
+        <v>0.8709453019815625</v>
       </c>
       <c r="S53" t="s">
         <v>22</v>
       </c>
       <c r="T53">
-        <v>0.0002696000000241838</v>
+        <v>0.0002829999999960364</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2498,37 +2501,37 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>42.03996533194064</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>4.70123668257612</v>
+        <v>148.1598613277625</v>
       </c>
       <c r="D54">
-        <v>7.107706399312939</v>
+        <v>3.313415778838408</v>
       </c>
       <c r="E54">
         <v>359.4805241593859</v>
       </c>
       <c r="F54">
-        <v>15.98558649627339</v>
+        <v>9.397822071031923</v>
       </c>
       <c r="G54">
-        <v>315.4198971372537</v>
+        <v>144.8162929644808</v>
       </c>
       <c r="H54">
-        <v>1.61923195116196</v>
+        <v>2.929866451247646</v>
       </c>
       <c r="Q54">
-        <v>2.92768358763426</v>
+        <v>1.020282764599966</v>
       </c>
       <c r="R54">
-        <v>4.325289570510294</v>
+        <v>0.6032123424998829</v>
       </c>
       <c r="S54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T54">
-        <v>0.0002827000000138469</v>
+        <v>0.0002884000000022979</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2536,37 +2539,37 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>43.09980832445602</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>101.0097972477061</v>
+        <v>152.3992332978241</v>
       </c>
       <c r="D55">
-        <v>9.548754024057528</v>
+        <v>9.733986483180409</v>
       </c>
       <c r="E55">
         <v>359.7941351331494</v>
       </c>
       <c r="F55">
-        <v>14.90836892301034</v>
+        <v>6.55955340287275</v>
       </c>
       <c r="G55">
-        <v>158.9833729329355</v>
+        <v>154.9612446947707</v>
       </c>
       <c r="H55">
-        <v>2.637389307633828</v>
+        <v>5.250903860427838</v>
       </c>
       <c r="Q55">
-        <v>3.984837229473206</v>
+        <v>1.6697872746021</v>
       </c>
       <c r="R55">
-        <v>4.400460521177283</v>
+        <v>1.840323704863427</v>
       </c>
       <c r="S55" t="s">
         <v>22</v>
       </c>
       <c r="T55">
-        <v>0.0002577000000201224</v>
+        <v>0.0002865000000014106</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2574,37 +2577,37 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>23.90823352133483</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>65.38310945371541</v>
+        <v>75.6329340853393</v>
       </c>
       <c r="D56">
-        <v>6.848766877614517</v>
+        <v>7.358873963581027</v>
       </c>
       <c r="E56">
         <v>1.852210744612911</v>
       </c>
       <c r="F56">
-        <v>14.82235787673515</v>
+        <v>7.833134025630708</v>
       </c>
       <c r="G56">
-        <v>169.0141361427065</v>
+        <v>76.69324142208721</v>
       </c>
       <c r="H56">
-        <v>3.201952240766359</v>
+        <v>3.963389012804026</v>
       </c>
       <c r="Q56">
-        <v>2.391982177861097</v>
+        <v>1.424125974838841</v>
       </c>
       <c r="R56">
-        <v>5.018407640011644</v>
+        <v>2.004238842437678</v>
       </c>
       <c r="S56" t="s">
         <v>22</v>
       </c>
       <c r="T56">
-        <v>0.0004792999999949643</v>
+        <v>0.0002915000000029977</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2612,37 +2615,37 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>9.18987290023361</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>174.8980655981618</v>
+        <v>16.75949160093444</v>
       </c>
       <c r="D57">
-        <v>9.838599804636461</v>
+        <v>14.65987103987745</v>
       </c>
       <c r="E57">
         <v>1.623731114633993</v>
       </c>
       <c r="F57">
-        <v>7.293475506920054</v>
+        <v>9.050969005317922</v>
       </c>
       <c r="G57">
-        <v>179.9117628487124</v>
+        <v>13.38343030920755</v>
       </c>
       <c r="H57">
-        <v>7.189942504899087</v>
+        <v>7.395806424330749</v>
       </c>
       <c r="Q57">
-        <v>3.835088388129025</v>
+        <v>1.525184709087086</v>
       </c>
       <c r="R57">
-        <v>1.548231043234411</v>
+        <v>1.887272943561376</v>
       </c>
       <c r="S57" t="s">
         <v>22</v>
       </c>
       <c r="T57">
-        <v>0.00025820000001886</v>
+        <v>0.0002919000000076721</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2650,37 +2653,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>49.28863327441595</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>60.0142078826376</v>
+        <v>177.1545330976638</v>
       </c>
       <c r="D58">
-        <v>11.73701624669138</v>
+        <v>7.00094719217584</v>
       </c>
       <c r="E58">
         <v>1.037643175502579</v>
       </c>
       <c r="F58">
-        <v>16.58353160002719</v>
+        <v>7.092373620752963</v>
       </c>
       <c r="G58">
-        <v>183.7238013305628</v>
+        <v>189.6120568738022</v>
       </c>
       <c r="H58">
-        <v>5.48006039205652</v>
+        <v>4.229587985339739</v>
       </c>
       <c r="Q58">
-        <v>4.652768507322071</v>
+        <v>7.139396070853032</v>
       </c>
       <c r="R58">
-        <v>5.790794634850379</v>
+        <v>2.045090519169557</v>
       </c>
       <c r="S58" t="s">
         <v>22</v>
       </c>
       <c r="T58">
-        <v>0.0002604999999675783</v>
+        <v>0.0002910999999983233</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -2688,37 +2691,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>8.930733930597878</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>41.48587791931104</v>
+        <v>15.72293572239151</v>
       </c>
       <c r="D59">
-        <v>9.110610706389128</v>
+        <v>5.765725194620736</v>
       </c>
       <c r="E59">
         <v>0.1310521573469041</v>
       </c>
       <c r="F59">
-        <v>7.408339592977762</v>
+        <v>8.985768933713564</v>
       </c>
       <c r="G59">
-        <v>37.86747788781975</v>
+        <v>11.83591283456126</v>
       </c>
       <c r="H59">
-        <v>6.90585646685465</v>
+        <v>4.387572356083256</v>
       </c>
       <c r="Q59">
-        <v>1.259501774420301</v>
+        <v>1.156835689883939</v>
       </c>
       <c r="R59">
-        <v>1.01233078603919</v>
+        <v>0.8965397846991455</v>
       </c>
       <c r="S59" t="s">
         <v>22</v>
       </c>
       <c r="T59">
-        <v>0.0002721000000178719</v>
+        <v>0.0002844999999922493</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2726,37 +2729,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>21.42975123602123</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>81.21706486080083</v>
+        <v>65.7190049440849</v>
       </c>
       <c r="D60">
-        <v>9.960603487677895</v>
+        <v>8.414470990720055</v>
       </c>
       <c r="E60">
         <v>0.7601861461745285</v>
       </c>
       <c r="F60">
-        <v>12.97485291994709</v>
+        <v>7.962755785338843</v>
       </c>
       <c r="G60">
-        <v>91.59674135269763</v>
+        <v>63.2905438680281</v>
       </c>
       <c r="H60">
-        <v>3.827748912761185</v>
+        <v>5.472511955842783</v>
       </c>
       <c r="Q60">
-        <v>1.720738918094885</v>
+        <v>1.30208386379583</v>
       </c>
       <c r="R60">
-        <v>2.646383308741911</v>
+        <v>1.46437600678757</v>
       </c>
       <c r="S60" t="s">
         <v>22</v>
       </c>
       <c r="T60">
-        <v>0.000266199999998662</v>
+        <v>0.000313099999999622</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2764,37 +2767,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>46.58158020084914</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>28.41670449626255</v>
+        <v>166.3263208033966</v>
       </c>
       <c r="D61">
-        <v>13.66915076815797</v>
+        <v>4.894446966417504</v>
       </c>
       <c r="E61">
         <v>1.669283521394728</v>
       </c>
       <c r="F61">
-        <v>18.19965631701842</v>
+        <v>7.860573685376417</v>
       </c>
       <c r="G61">
-        <v>189.745477477237</v>
+        <v>185.4789210064349</v>
       </c>
       <c r="H61">
-        <v>11.23890008676943</v>
+        <v>3.708575277275548</v>
       </c>
       <c r="Q61">
-        <v>24.59364934874087</v>
+        <v>3.141199855325421</v>
       </c>
       <c r="R61">
-        <v>5.910509132378097</v>
+        <v>1.85842996299561</v>
       </c>
       <c r="S61" t="s">
         <v>22</v>
       </c>
       <c r="T61">
-        <v>0.0002618000000325083</v>
+        <v>0.0002730000000070731</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2802,37 +2805,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>18.53929985209784</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>33.65024694153804</v>
+        <v>54.15719940839138</v>
       </c>
       <c r="D62">
-        <v>8.231826769682193</v>
+        <v>5.243349796102536</v>
       </c>
       <c r="E62">
         <v>0.9217709932130896</v>
       </c>
       <c r="F62">
-        <v>13.33897591071245</v>
+        <v>8.691990964355984</v>
       </c>
       <c r="G62">
-        <v>50.20495778777153</v>
+        <v>55.71866828180489</v>
       </c>
       <c r="H62">
-        <v>1.530051009573072</v>
+        <v>3.117957059182653</v>
       </c>
       <c r="Q62">
-        <v>1.850834644025492</v>
+        <v>1.390318209806161</v>
       </c>
       <c r="R62">
-        <v>3.147139628911891</v>
+        <v>1.500856403797132</v>
       </c>
       <c r="S62" t="s">
         <v>22</v>
       </c>
       <c r="T62">
-        <v>0.0002750000000446562</v>
+        <v>0.0002740000000045484</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2840,37 +2843,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>42.10112641609768</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>32.64295184949596</v>
+        <v>148.4045056643907</v>
       </c>
       <c r="D63">
-        <v>13.77326768207053</v>
+        <v>5.176196789966397</v>
       </c>
       <c r="E63">
         <v>0.4314955515598153</v>
       </c>
       <c r="F63">
-        <v>15.9078905709446</v>
+        <v>8.587887595934607</v>
       </c>
       <c r="G63">
-        <v>182.7034088410678</v>
+        <v>154.3298541714254</v>
       </c>
       <c r="H63">
-        <v>2.385245971184668</v>
+        <v>3.993726461825748</v>
       </c>
       <c r="Q63">
-        <v>3.74118850037786</v>
+        <v>1.185068151254669</v>
       </c>
       <c r="R63">
-        <v>6.963354320449123</v>
+        <v>1.062469295365079</v>
       </c>
       <c r="S63" t="s">
         <v>22</v>
       </c>
       <c r="T63">
-        <v>0.0002941999999848122</v>
+        <v>0.0002783999999991238</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -2878,37 +2881,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>6.518961969044375</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>88.03935143380524</v>
+        <v>6.075847876177498</v>
       </c>
       <c r="D64">
-        <v>13.46085097280883</v>
+        <v>8.869290095587015</v>
       </c>
       <c r="E64">
         <v>0.01232542630370722</v>
       </c>
       <c r="F64">
-        <v>3.400840744751275</v>
+        <v>8.542728098190096</v>
       </c>
       <c r="G64">
-        <v>77.07514113517735</v>
+        <v>2.700835822816268</v>
       </c>
       <c r="H64">
-        <v>5.518116442675221</v>
+        <v>7.088424522004338</v>
       </c>
       <c r="Q64">
-        <v>2.637323021414202</v>
+        <v>1.114819798528776</v>
       </c>
       <c r="R64">
-        <v>2.549533892387341</v>
+        <v>0.8323105380185452</v>
       </c>
       <c r="S64" t="s">
         <v>22</v>
       </c>
       <c r="T64">
-        <v>0.0002532000000314838</v>
+        <v>0.0002849000000111346</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -2916,37 +2919,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>29.92734601252639</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>71.32462086696601</v>
+        <v>99.70938405010556</v>
       </c>
       <c r="D65">
-        <v>5.481267725800767</v>
+        <v>7.7549747244644</v>
       </c>
       <c r="E65">
         <v>2.138978653518098</v>
       </c>
       <c r="F65">
-        <v>15.88828304000789</v>
+        <v>6.751415179151725</v>
       </c>
       <c r="G65">
-        <v>189.3448214721824</v>
+        <v>103.1653484123417</v>
       </c>
       <c r="H65">
-        <v>8.216247755518083</v>
+        <v>3.283527532625042</v>
       </c>
       <c r="Q65">
-        <v>9.036758715349348</v>
+        <v>1.819826906663743</v>
       </c>
       <c r="R65">
-        <v>5.514512377708931</v>
+        <v>2.604051611848575</v>
       </c>
       <c r="S65" t="s">
         <v>22</v>
       </c>
       <c r="T65">
-        <v>0.0002681999999936124</v>
+        <v>0.0002733000000034735</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -2954,37 +2957,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>22.05943364451965</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>102.0776700923305</v>
+        <v>68.23773457807862</v>
       </c>
       <c r="D66">
-        <v>10.95592512657122</v>
+        <v>9.805178006155369</v>
       </c>
       <c r="E66">
         <v>358.8996770607683</v>
       </c>
       <c r="F66">
-        <v>11.27762158395966</v>
+        <v>7.226182896477678</v>
       </c>
       <c r="G66">
-        <v>91.48795428102736</v>
+        <v>61.3126813359326</v>
       </c>
       <c r="H66">
-        <v>4.562599822322723</v>
+        <v>7.096366381432466</v>
       </c>
       <c r="Q66">
-        <v>3.025460683461781</v>
+        <v>1.888523016678098</v>
       </c>
       <c r="R66">
-        <v>2.813300803410234</v>
+        <v>1.601168368294777</v>
       </c>
       <c r="S66" t="s">
         <v>22</v>
       </c>
       <c r="T66">
-        <v>0.0002860000000168839</v>
+        <v>0.0002762000000018361</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2992,37 +2995,37 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>14.83902725662427</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>5.6524895104645</v>
+        <v>39.35610902649709</v>
       </c>
       <c r="D67">
-        <v>7.871252773397034</v>
+        <v>3.376832634030967</v>
       </c>
       <c r="E67">
         <v>0.8336648231326874</v>
       </c>
       <c r="F67">
-        <v>14.27969587002957</v>
+        <v>9.471929667459085</v>
       </c>
       <c r="G67">
-        <v>329.8431504004505</v>
+        <v>46.11914416699753</v>
       </c>
       <c r="H67">
-        <v>1.017746184551432</v>
+        <v>1.612776032269065</v>
       </c>
       <c r="Q67">
-        <v>1.396843641352898</v>
+        <v>1.151821001527638</v>
       </c>
       <c r="R67">
-        <v>3.343223951307835</v>
+        <v>1.771503239096932</v>
       </c>
       <c r="S67" t="s">
         <v>22</v>
       </c>
       <c r="T67">
-        <v>0.0007327000000145745</v>
+        <v>0.000281799999996224</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3030,37 +3033,37 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>11.94294101590741</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>24.06592092601187</v>
+        <v>27.77176406362965</v>
       </c>
       <c r="D68">
-        <v>8.626854661768876</v>
+        <v>4.604394728400791</v>
       </c>
       <c r="E68">
         <v>358.5843856359357</v>
       </c>
       <c r="F68">
-        <v>8.687928195127943</v>
+        <v>8.163402899309043</v>
       </c>
       <c r="G68">
-        <v>18.71937470695219</v>
+        <v>21.75990855849428</v>
       </c>
       <c r="H68">
-        <v>8.025066616583038</v>
+        <v>5.439847267351675</v>
       </c>
       <c r="Q68">
-        <v>1.759439216092434</v>
+        <v>1.52624970629813</v>
       </c>
       <c r="R68">
-        <v>1.116206074035218</v>
+        <v>1.263916413735673</v>
       </c>
       <c r="S68" t="s">
         <v>22</v>
       </c>
       <c r="T68">
-        <v>0.0004997000000344087</v>
+        <v>0.0003006000000027598</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3068,37 +3071,37 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>29.56331434707404</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>154.5941899064446</v>
+        <v>98.25325738829615</v>
       </c>
       <c r="D69">
-        <v>11.85892586566579</v>
+        <v>13.30627932709631</v>
       </c>
       <c r="E69">
         <v>358.8714778477798</v>
       </c>
       <c r="F69">
-        <v>15.09147416424535</v>
+        <v>5.104507158945849</v>
       </c>
       <c r="G69">
-        <v>158.1043276689396</v>
+        <v>88.75154972740201</v>
       </c>
       <c r="H69">
-        <v>4.856602193928106</v>
+        <v>5.524211564880404</v>
       </c>
       <c r="Q69">
-        <v>3.556102924445344</v>
+        <v>3.320965051255409</v>
       </c>
       <c r="R69">
-        <v>2.661922584798587</v>
+        <v>2.797693092096377</v>
       </c>
       <c r="S69" t="s">
         <v>22</v>
       </c>
       <c r="T69">
-        <v>0.0002594000000044616</v>
+        <v>0.001752600000003213</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -3106,37 +3109,37 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>16.67171614767995</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>7.804989209142046</v>
+        <v>46.68686459071981</v>
       </c>
       <c r="D70">
-        <v>10.82030342126604</v>
+        <v>3.520332613942803</v>
       </c>
       <c r="E70">
         <v>0.9444763643716535</v>
       </c>
       <c r="F70">
-        <v>14.43769525035401</v>
+        <v>9.110073060015239</v>
       </c>
       <c r="G70">
-        <v>333.4153294885076</v>
+        <v>54.58181758533614</v>
       </c>
       <c r="H70">
-        <v>1.074768164425316</v>
+        <v>1.62147779951879</v>
       </c>
       <c r="Q70">
-        <v>1.694925461805106</v>
+        <v>1.285282718570012</v>
       </c>
       <c r="R70">
-        <v>3.570872915745702</v>
+        <v>1.930305126353649</v>
       </c>
       <c r="S70" t="s">
         <v>22</v>
       </c>
       <c r="T70">
-        <v>0.0003836999999862201</v>
+        <v>0.0002807000000046855</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3144,37 +3147,37 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>18.33121227525951</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>145.6321888211988</v>
+        <v>53.32484910103803</v>
       </c>
       <c r="D71">
-        <v>8.502525252234115</v>
+        <v>12.70881258807992</v>
       </c>
       <c r="E71">
         <v>359.0844929014519</v>
       </c>
       <c r="F71">
-        <v>13.58819256708095</v>
+        <v>7.036186130612775</v>
       </c>
       <c r="G71">
-        <v>143.3806895336375</v>
+        <v>47.81175661202752</v>
       </c>
       <c r="H71">
-        <v>5.567852830606154</v>
+        <v>8.875088879125096</v>
       </c>
       <c r="Q71">
-        <v>1.90253381652428</v>
+        <v>1.785323973274502</v>
       </c>
       <c r="R71">
-        <v>1.57928035286565</v>
+        <v>1.614819780686467</v>
       </c>
       <c r="S71" t="s">
         <v>22</v>
       </c>
       <c r="T71">
-        <v>0.0002592000000163353</v>
+        <v>0.001834999999999809</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -3182,37 +3185,37 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>46.73662423785314</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>157.0367329936588</v>
+        <v>166.9464969514126</v>
       </c>
       <c r="D72">
-        <v>10.84631272595553</v>
+        <v>13.46911553291059</v>
       </c>
       <c r="E72">
         <v>359.1490025916981</v>
       </c>
       <c r="F72">
-        <v>15.32998136348776</v>
+        <v>8.644306740489659</v>
       </c>
       <c r="G72">
-        <v>183.112538673852</v>
+        <v>166.8884602564781</v>
       </c>
       <c r="H72">
-        <v>3.893993187496669</v>
+        <v>11.36568673237353</v>
       </c>
       <c r="Q72">
-        <v>5.446124212445547</v>
+        <v>1.597517384803294</v>
       </c>
       <c r="R72">
-        <v>3.58709287537306</v>
+        <v>0.8305661699649622</v>
       </c>
       <c r="S72" t="s">
         <v>22</v>
       </c>
       <c r="T72">
-        <v>0.0002675000000067485</v>
+        <v>0.0002762999999958993</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3220,37 +3223,37 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>13.35088736683427</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>69.5878745475726</v>
+        <v>33.40354946733707</v>
       </c>
       <c r="D73">
-        <v>13.3189619863717</v>
+        <v>7.63919163650484</v>
       </c>
       <c r="E73">
         <v>0.4306031497297935</v>
       </c>
       <c r="F73">
-        <v>8.769008828039667</v>
+        <v>8.712692627238898</v>
       </c>
       <c r="G73">
-        <v>65.85550329488888</v>
+        <v>31.37079940093015</v>
       </c>
       <c r="H73">
-        <v>7.176009646761157</v>
+        <v>5.216618240781831</v>
       </c>
       <c r="Q73">
-        <v>1.401573727627405</v>
+        <v>1.106367930666799</v>
       </c>
       <c r="R73">
-        <v>1.925988217949858</v>
+        <v>1.165831549116719</v>
       </c>
       <c r="S73" t="s">
         <v>22</v>
       </c>
       <c r="T73">
-        <v>0.0002688999999804764</v>
+        <v>0.0002780000000086602</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3258,37 +3261,37 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>9.803219101488983</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>123.1816739901637</v>
+        <v>19.21287640595593</v>
       </c>
       <c r="D74">
-        <v>10.34962617391087</v>
+        <v>11.21211159934425</v>
       </c>
       <c r="E74">
         <v>359.6814545009342</v>
       </c>
       <c r="F74">
-        <v>5.324182458212696</v>
+        <v>7.836269504114354</v>
       </c>
       <c r="G74">
-        <v>118.7975779085055</v>
+        <v>15.48939827888801</v>
       </c>
       <c r="H74">
-        <v>4.060090030374623</v>
+        <v>8.634314065290225</v>
       </c>
       <c r="Q74">
-        <v>2.671173723364316</v>
+        <v>1.500650524711607</v>
       </c>
       <c r="R74">
-        <v>2.469996070679128</v>
+        <v>1.108124749938525</v>
       </c>
       <c r="S74" t="s">
         <v>22</v>
       </c>
       <c r="T74">
-        <v>0.000249699999983477</v>
+        <v>0.0002840000000077225</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3296,37 +3299,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>33.92104621037356</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>96.95176757441044</v>
+        <v>115.6841848414942</v>
       </c>
       <c r="D75">
-        <v>10.1189798245863</v>
+        <v>9.463451171627362</v>
       </c>
       <c r="E75">
         <v>359.42318694869</v>
       </c>
       <c r="F75">
-        <v>14.69972576311107</v>
+        <v>6.886520268332761</v>
       </c>
       <c r="G75">
-        <v>98.52467556966367</v>
+        <v>111.8132231317446</v>
       </c>
       <c r="H75">
-        <v>2.84022316438656</v>
+        <v>5.58089482092694</v>
       </c>
       <c r="Q75">
-        <v>2.66543050019438</v>
+        <v>1.578849361059691</v>
       </c>
       <c r="R75">
-        <v>2.926233750199455</v>
+        <v>1.785561958753118</v>
       </c>
       <c r="S75" t="s">
         <v>22</v>
       </c>
       <c r="T75">
-        <v>0.0002565000000345208</v>
+        <v>0.00027519999999015</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3334,37 +3337,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>14.09910320436086</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>141.218568739901</v>
+        <v>36.39641281744344</v>
       </c>
       <c r="D76">
-        <v>13.60537239237031</v>
+        <v>12.41457124932673</v>
       </c>
       <c r="E76">
         <v>359.3916545061923</v>
       </c>
       <c r="F76">
-        <v>6.983390642506913</v>
+        <v>7.712427417534207</v>
       </c>
       <c r="G76">
-        <v>142.1309550564211</v>
+        <v>32.84203227037164</v>
       </c>
       <c r="H76">
-        <v>5.035612125794143</v>
+        <v>9.377313274111847</v>
       </c>
       <c r="Q76">
-        <v>2.500064684189477</v>
+        <v>1.330666103150349</v>
       </c>
       <c r="R76">
-        <v>2.590751832416477</v>
+        <v>1.233839653600423</v>
       </c>
       <c r="S76" t="s">
         <v>22</v>
       </c>
       <c r="T76">
-        <v>0.0002701000000229214</v>
+        <v>0.0002880999999916867</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -3372,37 +3375,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>30.60230990536605</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>11.87356096609964</v>
+        <v>102.4092396214642</v>
       </c>
       <c r="D77">
-        <v>13.88110669900257</v>
+        <v>3.791570731073309</v>
       </c>
       <c r="E77">
         <v>0.7095021339760793</v>
       </c>
       <c r="F77">
-        <v>18.7743887705291</v>
+        <v>8.702939755361561</v>
       </c>
       <c r="G77">
-        <v>193.990424596544</v>
+        <v>110.8180686264035</v>
       </c>
       <c r="H77">
-        <v>3.177653041157958</v>
+        <v>2.562295869803904</v>
       </c>
       <c r="Q77">
-        <v>2.229825791194472</v>
+        <v>1.086415917233578</v>
       </c>
       <c r="R77">
-        <v>7.19632938374939</v>
+        <v>1.414304371415879</v>
       </c>
       <c r="S77" t="s">
         <v>22</v>
       </c>
       <c r="T77">
-        <v>0.0002739000000246961</v>
+        <v>0.0002791000000001986</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -3410,37 +3413,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>18.98734098903599</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>147.417699729393</v>
+        <v>55.94936395614395</v>
       </c>
       <c r="D78">
-        <v>8.347526245715251</v>
+        <v>12.8278466486262</v>
       </c>
       <c r="E78">
         <v>359.0596986892811</v>
       </c>
       <c r="F78">
-        <v>14.80290549576815</v>
+        <v>7.112493984274621</v>
       </c>
       <c r="G78">
-        <v>143.8880251827184</v>
+        <v>50.69531984913744</v>
       </c>
       <c r="H78">
-        <v>5.847374228844506</v>
+        <v>9.005415293654783</v>
       </c>
       <c r="Q78">
-        <v>1.659291279328893</v>
+        <v>1.694701670488497</v>
       </c>
       <c r="R78">
-        <v>1.439387992595415</v>
+        <v>1.592625408203718</v>
       </c>
       <c r="S78" t="s">
         <v>22</v>
       </c>
       <c r="T78">
-        <v>0.0002678999999830012</v>
+        <v>0.0002827999999936992</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -3448,37 +3451,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>46.35990643096318</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>115.595207986294</v>
+        <v>165.4396257238527</v>
       </c>
       <c r="D79">
-        <v>12.53712229729177</v>
+        <v>10.70634719908626</v>
       </c>
       <c r="E79">
         <v>359.7755551479245</v>
       </c>
       <c r="F79">
-        <v>14.07732131320904</v>
+        <v>8.532488752788929</v>
       </c>
       <c r="G79">
-        <v>159.5264979034708</v>
+        <v>166.297659597221</v>
       </c>
       <c r="H79">
-        <v>3.011130839146434</v>
+        <v>8.719961267845285</v>
       </c>
       <c r="Q79">
-        <v>4.897566976235926</v>
+        <v>1.281450388219619</v>
       </c>
       <c r="R79">
-        <v>4.214528932871223</v>
+        <v>0.7859809857730986</v>
       </c>
       <c r="S79" t="s">
         <v>22</v>
       </c>
       <c r="T79">
-        <v>0.000265500000011798</v>
+        <v>0.0002697000000040362</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -3486,37 +3489,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>7.168155237510696</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>122.5733424961892</v>
+        <v>8.672620950042782</v>
       </c>
       <c r="D80">
-        <v>12.98696067903802</v>
+        <v>11.17155616641261</v>
       </c>
       <c r="E80">
         <v>359.8779538627754</v>
       </c>
       <c r="F80">
-        <v>3.453352447295195</v>
+        <v>8.30410490507821</v>
       </c>
       <c r="G80">
-        <v>117.3737223314838</v>
+        <v>5.615703016150501</v>
       </c>
       <c r="H80">
-        <v>4.454756284629377</v>
+        <v>8.340916493880776</v>
       </c>
       <c r="Q80">
-        <v>3.845214686861625</v>
+        <v>1.372729469434034</v>
       </c>
       <c r="R80">
-        <v>2.666686222440609</v>
+        <v>1.023031599869997</v>
       </c>
       <c r="S80" t="s">
         <v>22</v>
       </c>
       <c r="T80">
-        <v>0.0002670999999736523</v>
+        <v>0.0002860999999967362</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3524,37 +3527,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>27.53006568531715</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>84.25213667066072</v>
+        <v>90.1202627412686</v>
       </c>
       <c r="D81">
-        <v>10.00782525642232</v>
+        <v>8.616809111377382</v>
       </c>
       <c r="E81">
         <v>3.316358820770084</v>
       </c>
       <c r="F81">
-        <v>12.16751462503446</v>
+        <v>6.450001988753461</v>
       </c>
       <c r="G81">
-        <v>183.0091352060713</v>
+        <v>92.44799871114529</v>
       </c>
       <c r="H81">
-        <v>4.172651141035257</v>
+        <v>3.033701340381986</v>
       </c>
       <c r="Q81">
-        <v>5.649122299602473</v>
+        <v>2.215016326600921</v>
       </c>
       <c r="R81">
-        <v>5.685714429224037</v>
+        <v>3.098779848685626</v>
       </c>
       <c r="S81" t="s">
         <v>22</v>
       </c>
       <c r="T81">
-        <v>0.0005615999999690757</v>
+        <v>0.0002757999999971616</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3562,37 +3565,37 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>28.48620724251147</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>125.8931460626395</v>
+        <v>93.94482897004586</v>
       </c>
       <c r="D82">
-        <v>7.698689710729503</v>
+        <v>11.39287640417597</v>
       </c>
       <c r="E82">
         <v>358.1001470638519</v>
       </c>
       <c r="F82">
-        <v>12.49111764508937</v>
+        <v>6.086348256981241</v>
       </c>
       <c r="G82">
-        <v>93.68016634867013</v>
+        <v>85.22853797907575</v>
       </c>
       <c r="H82">
-        <v>2.157260540725693</v>
+        <v>6.366194414469194</v>
       </c>
       <c r="Q82">
-        <v>4.319713199155777</v>
+        <v>2.841583476312019</v>
       </c>
       <c r="R82">
-        <v>4.015597514774779</v>
+        <v>2.448177599928044</v>
       </c>
       <c r="S82" t="s">
         <v>22</v>
       </c>
       <c r="T82">
-        <v>0.0002711000000203967</v>
+        <v>0.0002805999999964115</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -3600,37 +3603,37 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>20.99386030123564</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>61.35279780407429</v>
+        <v>63.97544120494257</v>
       </c>
       <c r="D83">
-        <v>14.3310644228157</v>
+        <v>7.09018652027162</v>
       </c>
       <c r="E83">
         <v>1.359900342218693</v>
       </c>
       <c r="F83">
-        <v>11.59401977032378</v>
+        <v>8.132114020234885</v>
       </c>
       <c r="G83">
-        <v>64.41090301758304</v>
+        <v>63.94740464749776</v>
       </c>
       <c r="H83">
-        <v>4.498624611702729</v>
+        <v>4.084795753916189</v>
       </c>
       <c r="Q83">
-        <v>1.82457385356344</v>
+        <v>1.297969353273317</v>
       </c>
       <c r="R83">
-        <v>2.877896927173806</v>
+        <v>1.71169121241244</v>
       </c>
       <c r="S83" t="s">
         <v>22</v>
       </c>
       <c r="T83">
-        <v>0.0002761000000077729</v>
+        <v>0.0002780000000086602</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -3638,37 +3641,37 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>17.3851551410602</v>
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>115.0615369665485</v>
+        <v>49.54062056424078</v>
       </c>
       <c r="D84">
-        <v>11.2389921233538</v>
+        <v>10.67076913110323</v>
       </c>
       <c r="E84">
         <v>359.1593495972439</v>
       </c>
       <c r="F84">
-        <v>11.51533454975445</v>
+        <v>7.748216400975057</v>
       </c>
       <c r="G84">
-        <v>109.9954369706969</v>
+        <v>44.39043230782256</v>
       </c>
       <c r="H84">
-        <v>6.626272917218205</v>
+        <v>8.749239456544199</v>
       </c>
       <c r="Q84">
-        <v>1.726584770043343</v>
+        <v>1.270805610323605</v>
       </c>
       <c r="R84">
-        <v>1.925591223702399</v>
+        <v>1.164399947064234</v>
       </c>
       <c r="S84" t="s">
         <v>22</v>
       </c>
       <c r="T84">
-        <v>0.0002708999999754269</v>
+        <v>0.0002927999999968733</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -3676,37 +3679,37 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>16.5669092197313</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>123.081764952793</v>
+        <v>46.26763687892519</v>
       </c>
       <c r="D85">
-        <v>11.63641757569115</v>
+        <v>11.20545099685287</v>
       </c>
       <c r="E85">
         <v>359.150687113963</v>
       </c>
       <c r="F85">
-        <v>10.56317223193128</v>
+        <v>7.572926959178758</v>
       </c>
       <c r="G85">
-        <v>120.4934866314248</v>
+        <v>41.72126971385139</v>
       </c>
       <c r="H85">
-        <v>6.367457197885054</v>
+        <v>8.490671154028474</v>
       </c>
       <c r="Q85">
-        <v>1.954109364796487</v>
+        <v>1.472981344673016</v>
       </c>
       <c r="R85">
-        <v>2.013021980307545</v>
+        <v>1.336182434079291</v>
       </c>
       <c r="S85" t="s">
         <v>22</v>
       </c>
       <c r="T85">
-        <v>0.0002696999999898253</v>
+        <v>0.0002831999999983736</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -3714,37 +3717,37 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>7.071844713416848</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>66.64361690080786</v>
+        <v>8.287378853667391</v>
       </c>
       <c r="D86">
-        <v>7.423182674914047</v>
+        <v>7.442907793387191</v>
       </c>
       <c r="E86">
         <v>0.1316122019755955</v>
       </c>
       <c r="F86">
-        <v>5.93762088656348</v>
+        <v>9.165254633470406</v>
       </c>
       <c r="G86">
-        <v>63.01070471995014</v>
+        <v>4.630881267693995</v>
       </c>
       <c r="H86">
-        <v>5.631727762609701</v>
+        <v>5.215598565250994</v>
       </c>
       <c r="Q86">
-        <v>1.25350550390551</v>
+        <v>1.178617753678524</v>
       </c>
       <c r="R86">
-        <v>0.9943667473819782</v>
+        <v>1.011571123648987</v>
       </c>
       <c r="S86" t="s">
         <v>22</v>
       </c>
       <c r="T86">
-        <v>0.0002915999999686392</v>
+        <v>0.0002904999999913116</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -3752,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>32.91682165489652</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>91.61155235617326</v>
+        <v>111.6672866195861</v>
       </c>
       <c r="D87">
-        <v>7.982448417587287</v>
+        <v>9.107436823744884</v>
       </c>
       <c r="E87">
         <v>359.8231492789211</v>
       </c>
       <c r="F87">
-        <v>15.45083310574549</v>
+        <v>6.927504247948745</v>
       </c>
       <c r="G87">
-        <v>111.6070650807437</v>
+        <v>107.9569917679259</v>
       </c>
       <c r="H87">
-        <v>2.17272573344672</v>
+        <v>5.298462931317244</v>
       </c>
       <c r="Q87">
-        <v>2.34832387693918</v>
+        <v>1.518510105140899</v>
       </c>
       <c r="R87">
-        <v>3.247980478291388</v>
+        <v>1.694619603729565</v>
       </c>
       <c r="S87" t="s">
         <v>22</v>
       </c>
       <c r="T87">
-        <v>0.0002779999999802385</v>
+        <v>0.0002856999999920617</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -3790,37 +3793,37 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>14.11731291330007</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>37.27675873097517</v>
+        <v>36.46925165320029</v>
       </c>
       <c r="D88">
-        <v>6.526377433002459</v>
+        <v>5.485117248731678</v>
       </c>
       <c r="E88">
         <v>0.596285718967305</v>
       </c>
       <c r="F88">
-        <v>11.48679047102922</v>
+        <v>8.954166450746127</v>
       </c>
       <c r="G88">
-        <v>38.54883730701444</v>
+        <v>34.99194192083566</v>
       </c>
       <c r="H88">
-        <v>3.03631487331845</v>
+        <v>3.551410073852676</v>
       </c>
       <c r="Q88">
-        <v>1.392469981421229</v>
+        <v>1.236622991901054</v>
       </c>
       <c r="R88">
-        <v>1.828335030980912</v>
+        <v>1.24165244479126</v>
       </c>
       <c r="S88" t="s">
         <v>22</v>
       </c>
       <c r="T88">
-        <v>0.0002802000000201588</v>
+        <v>0.0003636000000000195</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -3828,37 +3831,37 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>34.53188833548306</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>171.8822478443809</v>
+        <v>118.1275533419322</v>
       </c>
       <c r="D89">
-        <v>14.70876034993816</v>
+        <v>14.45881652295873</v>
       </c>
       <c r="E89">
         <v>359.6276244791469</v>
       </c>
       <c r="F89">
-        <v>20.65542953805809</v>
+        <v>3.610888776075314</v>
       </c>
       <c r="G89">
-        <v>179.1753964855347</v>
+        <v>106.7192622346614</v>
       </c>
       <c r="H89">
-        <v>9.488207380308605</v>
+        <v>3.059374950754721</v>
       </c>
       <c r="Q89">
-        <v>2.569189293341574</v>
+        <v>5.286990071439289</v>
       </c>
       <c r="R89">
-        <v>1.832484235906453</v>
+        <v>3.414172156239029</v>
       </c>
       <c r="S89" t="s">
         <v>22</v>
       </c>
       <c r="T89">
-        <v>0.0002986999999734508</v>
+        <v>0.0003497999999950707</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -3866,37 +3869,37 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>34.13979722088605</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>91.28694387835442</v>
+        <v>116.5591888835442</v>
       </c>
       <c r="D90">
-        <v>10.28341380152239</v>
+        <v>9.085796258556961</v>
       </c>
       <c r="E90">
         <v>359.8931156958482</v>
       </c>
       <c r="F90">
-        <v>14.63627161816789</v>
+        <v>6.94992828828797</v>
       </c>
       <c r="G90">
-        <v>125.6414227505292</v>
+        <v>114.6384428610379</v>
       </c>
       <c r="H90">
-        <v>2.625663502925212</v>
+        <v>5.178850187780855</v>
       </c>
       <c r="Q90">
-        <v>3.141125808469102</v>
+        <v>1.667518791500709</v>
       </c>
       <c r="R90">
-        <v>3.699398457497092</v>
+        <v>1.658099782081939</v>
       </c>
       <c r="S90" t="s">
         <v>22</v>
       </c>
       <c r="T90">
-        <v>0.0002843999999981861</v>
+        <v>0.0002731999999951995</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -3904,37 +3907,37 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>27.48624442109753</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>46.06868417610064</v>
+        <v>89.94497768439012</v>
       </c>
       <c r="D91">
-        <v>7.581006309885745</v>
+        <v>6.071245611740043</v>
       </c>
       <c r="E91">
         <v>1.693730026547098</v>
       </c>
       <c r="F91">
-        <v>16.08421644528244</v>
+        <v>7.692365475825374</v>
       </c>
       <c r="G91">
-        <v>184.1443535040198</v>
+        <v>95.37499903767157</v>
       </c>
       <c r="H91">
-        <v>4.902830160743923</v>
+        <v>3.064904588280469</v>
       </c>
       <c r="Q91">
-        <v>3.284794770804148</v>
+        <v>1.576480731896236</v>
       </c>
       <c r="R91">
-        <v>5.449888296278467</v>
+        <v>2.181731226626739</v>
       </c>
       <c r="S91" t="s">
         <v>22</v>
       </c>
       <c r="T91">
-        <v>0.0002747999999996864</v>
+        <v>0.0004590000000064265</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -3942,37 +3945,37 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>11.88743894447661</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>28.38341898169331</v>
+        <v>27.54975577790644</v>
       </c>
       <c r="D92">
-        <v>14.85491114183153</v>
+        <v>4.892227932112887</v>
       </c>
       <c r="E92">
         <v>0.2244866681993254</v>
       </c>
       <c r="F92">
-        <v>8.717499821210506</v>
+        <v>9.264189234708629</v>
       </c>
       <c r="G92">
-        <v>24.52304170676949</v>
+        <v>25.43338837550923</v>
       </c>
       <c r="H92">
-        <v>9.038904722864343</v>
+        <v>3.650204687453674</v>
       </c>
       <c r="Q92">
-        <v>1.729499833514735</v>
+        <v>1.236387454099434</v>
       </c>
       <c r="R92">
-        <v>1.575871244616131</v>
+        <v>0.8663580166474898</v>
       </c>
       <c r="S92" t="s">
         <v>22</v>
       </c>
       <c r="T92">
-        <v>0.0002694000000360575</v>
+        <v>0.0002800000000036107</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -3980,37 +3983,37 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>14.04516182530883</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>59.22368396859275</v>
+        <v>36.1806473012353</v>
       </c>
       <c r="D93">
-        <v>7.964996887010721</v>
+        <v>6.948245597906183</v>
       </c>
       <c r="E93">
         <v>0.6061210177347658</v>
       </c>
       <c r="F93">
-        <v>10.69481060701065</v>
+        <v>8.724835479199905</v>
       </c>
       <c r="G93">
-        <v>59.07417721077103</v>
+        <v>33.86535630652809</v>
       </c>
       <c r="H93">
-        <v>4.440527384522992</v>
+        <v>4.682239868656148</v>
       </c>
       <c r="Q93">
-        <v>1.207439355286091</v>
+        <v>1.085837703384553</v>
       </c>
       <c r="R93">
-        <v>1.659073700156815</v>
+        <v>1.237255735743747</v>
       </c>
       <c r="S93" t="s">
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.0002781000000027234</v>
+        <v>0.0002750999999960868</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -4018,37 +4021,37 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>44.86462247469316</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>141.9446820246704</v>
+        <v>159.4584898987726</v>
       </c>
       <c r="D94">
-        <v>9.247281314751076</v>
+        <v>12.4629788016447</v>
       </c>
       <c r="E94">
         <v>359.7697007582177</v>
       </c>
       <c r="F94">
-        <v>17.6132491119486</v>
+        <v>8.098144951259375</v>
       </c>
       <c r="G94">
-        <v>178.2741142684641</v>
+        <v>160.2854377014324</v>
       </c>
       <c r="H94">
-        <v>5.468342311146031</v>
+        <v>9.545646496984158</v>
       </c>
       <c r="Q94">
-        <v>3.78376456547224</v>
+        <v>1.277971322454044</v>
       </c>
       <c r="R94">
-        <v>2.999801437831825</v>
+        <v>0.9804239912696748</v>
       </c>
       <c r="S94" t="s">
         <v>22</v>
       </c>
       <c r="T94">
-        <v>0.0002784999999789761</v>
+        <v>0.0002855000000039354</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -4056,37 +4059,37 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>32.28594519994139</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>118.3520823512068</v>
+        <v>109.1437807997656</v>
       </c>
       <c r="D95">
-        <v>8.0724100934357</v>
+        <v>10.89013882341379</v>
       </c>
       <c r="E95">
         <v>358.3698019196562</v>
       </c>
       <c r="F95">
-        <v>11.98016174282022</v>
+        <v>5.451178751129664</v>
       </c>
       <c r="G95">
-        <v>100.0230527701617</v>
+        <v>100.1232930678984</v>
       </c>
       <c r="H95">
-        <v>1.559816337922717</v>
+        <v>4.78422491996568</v>
       </c>
       <c r="Q95">
-        <v>5.434125878347037</v>
+        <v>3.706882121437566</v>
       </c>
       <c r="R95">
-        <v>3.93093121105463</v>
+        <v>2.792905674407156</v>
       </c>
       <c r="S95" t="s">
         <v>22</v>
       </c>
       <c r="T95">
-        <v>0.0002632000000062362</v>
+        <v>0.0002746999999914124</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -4094,37 +4097,37 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>37.37236038097813</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>109.2998116119581</v>
+        <v>129.4894415239125</v>
       </c>
       <c r="D96">
-        <v>11.89861614578764</v>
+        <v>10.28665410746387</v>
       </c>
       <c r="E96">
         <v>359.2565467844867</v>
       </c>
       <c r="F96">
-        <v>13.32020668273882</v>
+        <v>5.746699523140044</v>
       </c>
       <c r="G96">
-        <v>121.230525575646</v>
+        <v>126.4526148048402</v>
       </c>
       <c r="H96">
-        <v>2.552669311339946</v>
+        <v>4.51349741886869</v>
       </c>
       <c r="Q96">
-        <v>4.247944569743163</v>
+        <v>2.487930612073673</v>
       </c>
       <c r="R96">
-        <v>3.520429280072464</v>
+        <v>2.373736990263678</v>
       </c>
       <c r="S96" t="s">
         <v>22</v>
       </c>
       <c r="T96">
-        <v>0.0002743000000009488</v>
+        <v>0.000424100000003591</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -4132,37 +4135,37 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>15.29615694006055</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>34.32384335235293</v>
+        <v>41.18462776024221</v>
       </c>
       <c r="D97">
-        <v>13.86359670982399</v>
+        <v>5.288256223490196</v>
       </c>
       <c r="E97">
         <v>0.6642888995524697</v>
       </c>
       <c r="F97">
-        <v>10.34553773971469</v>
+        <v>8.811340053538874</v>
       </c>
       <c r="G97">
-        <v>29.96700324867486</v>
+        <v>38.95530515724643</v>
       </c>
       <c r="H97">
-        <v>6.814528811923185</v>
+        <v>3.463253998073223</v>
       </c>
       <c r="Q97">
-        <v>1.58029793296436</v>
+        <v>1.211045305682233</v>
       </c>
       <c r="R97">
-        <v>2.085558883407987</v>
+        <v>1.282677100952448</v>
       </c>
       <c r="S97" t="s">
         <v>22</v>
       </c>
       <c r="T97">
-        <v>0.0002532000000314838</v>
+        <v>0.0002793000000025359</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -4170,37 +4173,37 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>14.6609100057572</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>163.7104268414994</v>
+        <v>38.64364002302879</v>
       </c>
       <c r="D98">
-        <v>13.17235373163457</v>
+        <v>13.91402845609996</v>
       </c>
       <c r="E98">
         <v>359.930152225234</v>
       </c>
       <c r="F98">
-        <v>9.134753915077928</v>
+        <v>7.386790339183058</v>
       </c>
       <c r="G98">
-        <v>168.1971803119068</v>
+        <v>34.65271937366205</v>
       </c>
       <c r="H98">
-        <v>7.000035561541591</v>
+        <v>9.326218351049265</v>
       </c>
       <c r="Q98">
-        <v>1.56589073374878</v>
+        <v>1.52378134045589</v>
       </c>
       <c r="R98">
-        <v>1.92930280078407</v>
+        <v>1.37708367412045</v>
       </c>
       <c r="S98" t="s">
         <v>22</v>
       </c>
       <c r="T98">
-        <v>0.0002473000000122738</v>
+        <v>0.0002789999999919246</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -4208,37 +4211,37 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>42.66248559190357</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>174.6424533492594</v>
+        <v>150.6499423676143</v>
       </c>
       <c r="D99">
-        <v>9.471537852615114</v>
+        <v>14.64283022328396</v>
       </c>
       <c r="E99">
         <v>1.751187751292006</v>
       </c>
       <c r="F99">
-        <v>19.18129798991188</v>
+        <v>6.502513211881205</v>
       </c>
       <c r="G99">
-        <v>189.8059206101415</v>
+        <v>153.837176851266</v>
       </c>
       <c r="H99">
-        <v>15.47226910040421</v>
+        <v>8.168294110665856</v>
       </c>
       <c r="Q99">
-        <v>5185.213052939163</v>
+        <v>2.525938166855346</v>
       </c>
       <c r="R99">
-        <v>3.318092548740824</v>
+        <v>2.205802901391927</v>
       </c>
       <c r="S99" t="s">
         <v>22</v>
       </c>
       <c r="T99">
-        <v>0.0002954000000272572</v>
+        <v>0.000286699999989537</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -4246,37 +4249,37 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>37.95202616309834</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>102.0940227811593</v>
+        <v>131.8081046523934</v>
       </c>
       <c r="D100">
-        <v>8.012238900499931</v>
+        <v>9.806268185410616</v>
       </c>
       <c r="E100">
         <v>359.5262829187342</v>
       </c>
       <c r="F100">
-        <v>14.33084457173518</v>
+        <v>5.6996641554531</v>
       </c>
       <c r="G100">
-        <v>147.2131686454205</v>
+        <v>130.0459649840425</v>
       </c>
       <c r="H100">
-        <v>1.9514734677007</v>
+        <v>4.125210188837259</v>
       </c>
       <c r="Q100">
-        <v>3.891175431967508</v>
+        <v>2.338870941656988</v>
       </c>
       <c r="R100">
-        <v>4.174830326780451</v>
+        <v>2.327528528655064</v>
       </c>
       <c r="S100" t="s">
         <v>22</v>
       </c>
       <c r="T100">
-        <v>0.0002652999999668282</v>
+        <v>0.0002850000000051978</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -4284,37 +4287,37 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>35.25253513838563</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>87.85411186330506</v>
+        <v>121.0101405535425</v>
       </c>
       <c r="D101">
-        <v>13.25495174035896</v>
+        <v>8.856940790887005</v>
       </c>
       <c r="E101">
         <v>0.1423588427019467</v>
       </c>
       <c r="F101">
-        <v>13.90214013753002</v>
+        <v>6.701822544364695</v>
       </c>
       <c r="G101">
-        <v>109.7360528562511</v>
+        <v>119.7891545098259</v>
       </c>
       <c r="H101">
-        <v>2.880027619529717</v>
+        <v>4.678420227530472</v>
       </c>
       <c r="Q101">
-        <v>2.949739173088604</v>
+        <v>1.606365043872167</v>
       </c>
       <c r="R101">
-        <v>3.548842145850004</v>
+        <v>1.795258638975539</v>
       </c>
       <c r="S101" t="s">
         <v>22</v>
       </c>
       <c r="T101">
-        <v>0.00025229999999965</v>
+        <v>0.0002763999999899625</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 1.0.xlsx
+++ b/tests/tests8/N 1.0.xlsx
@@ -492,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="L2">
-        <v>0.0002708999999185835</v>
+        <v>0.0002972999999997228</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -530,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="L3">
-        <v>0.0002768000000514803</v>
+        <v>0.0002875000000024386</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="L4">
-        <v>0.0002790000000914006</v>
+        <v>0.0007542000000029248</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -606,7 +606,7 @@
         <v>12</v>
       </c>
       <c r="L5">
-        <v>0.0002668999999286825</v>
+        <v>0.0002662999999998306</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -644,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="L6">
-        <v>0.0002757000000883636</v>
+        <v>0.0003537999999991825</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="L7">
-        <v>0.0002854000000525048</v>
+        <v>0.0002702000000027738</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -720,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="L8">
-        <v>0.0002668999999286825</v>
+        <v>0.0002803000000000111</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="L9">
-        <v>0.0002633000000287211</v>
+        <v>0.000273500000002258</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -796,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="L10">
-        <v>0.0002650999999787018</v>
+        <v>0.0002686999999994555</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -834,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="L11">
-        <v>0.0002538999999615044</v>
+        <v>0.0003003999999968698</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 1.0.xlsx
+++ b/tests/tests8/N 1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>П0_ист</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>V0_расч</t>
+  </si>
+  <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
   </si>
   <si>
     <t>Ка</t>
@@ -413,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +462,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
@@ -471,31 +483,37 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>358.2359476540324</v>
+        <v>-0.1770483542066292</v>
       </c>
       <c r="F2">
-        <v>5.951924374382552</v>
+        <v>5.748649108798213</v>
       </c>
       <c r="G2">
-        <v>89.65313672538583</v>
+        <v>5.83036729686748</v>
       </c>
       <c r="H2">
-        <v>6.270229627874334</v>
+        <v>0.006798099668858942</v>
       </c>
       <c r="I2">
-        <v>2.673291794392489</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="J2">
-        <v>2.490613775751905</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+        <v>15.80711097780685</v>
+      </c>
+      <c r="K2">
+        <v>3.08823191389388</v>
       </c>
       <c r="L2">
-        <v>0.0002972999999997228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.729060910379189</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>0.0002376000002186629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -509,31 +527,37 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>358.3756546363367</v>
+        <v>-0.187403663980465</v>
       </c>
       <c r="F3">
-        <v>6.95169295991495</v>
+        <v>6.608546692987034</v>
       </c>
       <c r="G3">
-        <v>68.70652283679173</v>
+        <v>6.978370169771508</v>
       </c>
       <c r="H3">
-        <v>8.027895882771569</v>
+        <v>2.899565399177128</v>
       </c>
       <c r="I3">
-        <v>2.007508620992164</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="J3">
-        <v>1.849445626380839</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
+        <v>18.32782196423818</v>
+      </c>
+      <c r="K3">
+        <v>2.16960327489259</v>
       </c>
       <c r="L3">
-        <v>0.0002875000000024386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.09182259394113</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>0.0002104999994116952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>0</v>
       </c>
@@ -547,31 +571,37 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.4167578474054766</v>
+        <v>0.06540084192217707</v>
       </c>
       <c r="F4">
-        <v>9.018731575404225</v>
+        <v>8.991135154884613</v>
       </c>
       <c r="G4">
-        <v>82.93801087897161</v>
+        <v>2.259152665508298</v>
       </c>
       <c r="H4">
-        <v>2.326100143644016</v>
+        <v>0.2167180031901634</v>
       </c>
       <c r="I4">
-        <v>1.136996216876287</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="J4">
-        <v>1.122925693196884</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
+        <v>9.618122158119826</v>
+      </c>
+      <c r="K4">
+        <v>1.218183197757609</v>
       </c>
       <c r="L4">
-        <v>0.0007542000000029248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.521597426466013</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>0.0002069000001938548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>0</v>
       </c>
@@ -585,31 +615,37 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>358.2113715265697</v>
+        <v>-0.1720255477229339</v>
       </c>
       <c r="F5">
-        <v>5.770202785658594</v>
+        <v>5.508766089267831</v>
       </c>
       <c r="G5">
-        <v>90.5151718689319</v>
+        <v>5.422258712955646</v>
       </c>
       <c r="H5">
-        <v>5.791623043564108</v>
+        <v>0.09273603440010324</v>
       </c>
       <c r="I5">
-        <v>3.19735004406478</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="J5">
-        <v>2.608542328619014</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
+        <v>15.67687823027242</v>
+      </c>
+      <c r="K5">
+        <v>3.675302750892847</v>
       </c>
       <c r="L5">
-        <v>0.0002662999999998306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>2.999842900154658</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>0.000229399999625457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>0</v>
       </c>
@@ -623,31 +659,37 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>359.9494382928571</v>
+        <v>-0.007954408063755506</v>
       </c>
       <c r="F6">
-        <v>8.907663760351484</v>
+        <v>9.013815356022629</v>
       </c>
       <c r="G6">
-        <v>175.2921897441025</v>
+        <v>0.7035619967876755</v>
       </c>
       <c r="H6">
-        <v>8.202741445442944</v>
+        <v>-8.301618180174803</v>
       </c>
       <c r="I6">
-        <v>1.110670590893415</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="J6">
-        <v>0.5818203464716127</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
+        <v>4.673171010711503</v>
+      </c>
+      <c r="K6">
+        <v>1.122046926656826</v>
       </c>
       <c r="L6">
-        <v>0.0003537999999991825</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.7869864724901812</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>0.0002340000000913278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>0</v>
       </c>
@@ -661,31 +703,37 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>359.5587725131149</v>
+        <v>-0.05791468261678343</v>
       </c>
       <c r="F7">
-        <v>7.261047303119548</v>
+        <v>7.520386624306376</v>
       </c>
       <c r="G7">
-        <v>35.1820941850474</v>
+        <v>5.717694854673788</v>
       </c>
       <c r="H7">
-        <v>9.550745757062876</v>
+        <v>7.826914108186087</v>
       </c>
       <c r="I7">
-        <v>1.494820236611536</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="J7">
-        <v>1.410824323532179</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
+        <v>22.87529985576693</v>
+      </c>
+      <c r="K7">
+        <v>1.420685839153214</v>
       </c>
       <c r="L7">
-        <v>0.0002702000000027738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.550417609888895</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>0.0002067000004899455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>0</v>
       </c>
@@ -699,31 +747,37 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0.3117836734875126</v>
+        <v>0.04225214392579598</v>
       </c>
       <c r="F8">
-        <v>7.668223539647285</v>
+        <v>7.764504151067619</v>
       </c>
       <c r="G8">
-        <v>166.5549774139021</v>
+        <v>1.104705494443534</v>
       </c>
       <c r="H8">
-        <v>4.603854342969795</v>
+        <v>-4.570141610325147</v>
       </c>
       <c r="I8">
-        <v>1.125121273020386</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="J8">
-        <v>1.464521344375146</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
+        <v>3.973338297383755</v>
+      </c>
+      <c r="K8">
+        <v>1.144716161163867</v>
       </c>
       <c r="L8">
-        <v>0.0002803000000000111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.570728289891597</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>0.0002011000005950336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>0</v>
       </c>
@@ -737,31 +791,37 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>358.3094742961997</v>
+        <v>-0.1962730942791624</v>
       </c>
       <c r="F9">
-        <v>6.72677152646161</v>
+        <v>6.650213240563277</v>
       </c>
       <c r="G9">
-        <v>10.37742463615163</v>
+        <v>2.037832649981436</v>
       </c>
       <c r="H9">
-        <v>11.86342822750757</v>
+        <v>11.164531192518</v>
       </c>
       <c r="I9">
-        <v>1.549132731302707</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="J9">
-        <v>1.152371263275141</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
+        <v>22.28974380606835</v>
+      </c>
+      <c r="K9">
+        <v>1.640764979691545</v>
       </c>
       <c r="L9">
-        <v>0.000273500000002258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.890615517345162</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>0.0001967000007425668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>0</v>
       </c>
@@ -775,31 +835,37 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>359.9087952833802</v>
+        <v>-0.01266332555811633</v>
       </c>
       <c r="F10">
-        <v>8.165975447895381</v>
+        <v>7.955229983081288</v>
       </c>
       <c r="G10">
-        <v>157.9421148869312</v>
+        <v>4.141433626420468</v>
       </c>
       <c r="H10">
-        <v>11.40102178975774</v>
+        <v>-10.2340493005517</v>
       </c>
       <c r="I10">
-        <v>1.473016594248657</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="J10">
-        <v>0.8973650770300878</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
+        <v>11.86534188679525</v>
+      </c>
+      <c r="K10">
+        <v>1.50484309337038</v>
       </c>
       <c r="L10">
-        <v>0.0002686999999994555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.180793403833066</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>0.0001910999999381602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>0</v>
       </c>
@@ -813,28 +879,34 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>359.9988914452878</v>
+        <v>-0.0001775021508017125</v>
       </c>
       <c r="F11">
-        <v>9.115383893242878</v>
+        <v>9.174219353117993</v>
       </c>
       <c r="G11">
-        <v>358.7036920448201</v>
+        <v>-0.2063673564814312</v>
       </c>
       <c r="H11">
-        <v>6.80294473897894</v>
+        <v>6.365123280089808</v>
       </c>
       <c r="I11">
-        <v>1.148902680389052</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="J11">
-        <v>0.8418091393549789</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
+        <v>18.26849864379155</v>
+      </c>
+      <c r="K11">
+        <v>1.26249189373487</v>
       </c>
       <c r="L11">
-        <v>0.0003003999999968698</v>
+        <v>1.46340731800432</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>0.0002226999995400547</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 1.0.xlsx
+++ b/tests/tests8/N 1.0.xlsx
@@ -483,16 +483,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-0.1770483542066292</v>
+        <v>358.2359476540324</v>
       </c>
       <c r="F2">
-        <v>5.748649108798213</v>
+        <v>5.751374852660342</v>
       </c>
       <c r="G2">
-        <v>5.83036729686748</v>
+        <v>89.93319421858153</v>
       </c>
       <c r="H2">
-        <v>0.006798099668858942</v>
+        <v>5.830371260094927</v>
       </c>
       <c r="I2">
         <v>0.3392696413876129</v>
@@ -510,7 +510,7 @@
         <v>14</v>
       </c>
       <c r="N2">
-        <v>0.0002376000002186629</v>
+        <v>0.0002322000000001267</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -527,16 +527,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>-0.187403663980465</v>
+        <v>358.3756546363367</v>
       </c>
       <c r="F3">
-        <v>6.608546692987034</v>
+        <v>6.61120333423978</v>
       </c>
       <c r="G3">
-        <v>6.978370169771508</v>
+        <v>67.43674714156784</v>
       </c>
       <c r="H3">
-        <v>2.899565399177128</v>
+        <v>7.556793614388449</v>
       </c>
       <c r="I3">
         <v>0.6427012887259322</v>
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="N3">
-        <v>0.0002104999994116952</v>
+        <v>0.0002098000000003708</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -571,16 +571,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.06540084192217707</v>
+        <v>0.4167578474054766</v>
       </c>
       <c r="F4">
-        <v>8.991135154884613</v>
+        <v>8.991373012144814</v>
       </c>
       <c r="G4">
-        <v>2.259152665508298</v>
+        <v>84.52044678921429</v>
       </c>
       <c r="H4">
-        <v>0.2167180031901634</v>
+        <v>2.2695236193924</v>
       </c>
       <c r="I4">
         <v>1.016342879682239</v>
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="N4">
-        <v>0.0002069000001938548</v>
+        <v>0.0002249000000000834</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -615,16 +615,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>-0.1720255477229339</v>
+        <v>358.2113715265697</v>
       </c>
       <c r="F5">
-        <v>5.508766089267831</v>
+        <v>5.511451407327889</v>
       </c>
       <c r="G5">
-        <v>5.422258712955646</v>
+        <v>89.02017485988408</v>
       </c>
       <c r="H5">
-        <v>0.09273603440010324</v>
+        <v>5.423051679847766</v>
       </c>
       <c r="I5">
         <v>0.3375023832549029</v>
@@ -642,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="N5">
-        <v>0.000229399999625457</v>
+        <v>0.0002047000000002797</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -659,16 +659,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>-0.007954408063755506</v>
+        <v>359.9494382928571</v>
       </c>
       <c r="F6">
-        <v>9.013815356022629</v>
+        <v>9.013818865779198</v>
       </c>
       <c r="G6">
-        <v>0.7035619967876755</v>
+        <v>175.1557595640882</v>
       </c>
       <c r="H6">
-        <v>-8.301618180174803</v>
+        <v>8.331378270894477</v>
       </c>
       <c r="I6">
         <v>-1.042039640464102</v>
@@ -686,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="N6">
-        <v>0.0002340000000913278</v>
+        <v>0.000210699999999342</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -703,16 +703,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-0.05791468261678343</v>
+        <v>359.5587725131149</v>
       </c>
       <c r="F7">
-        <v>7.520386624306376</v>
+        <v>7.520609622198778</v>
       </c>
       <c r="G7">
-        <v>5.717694854673788</v>
+        <v>36.14876845863526</v>
       </c>
       <c r="H7">
-        <v>7.826914108186087</v>
+        <v>9.692915913598215</v>
       </c>
       <c r="I7">
         <v>1.04226575396884</v>
@@ -730,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="N7">
-        <v>0.0002067000004899455</v>
+        <v>0.0002078000000000912</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -747,16 +747,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0.04225214392579598</v>
+        <v>0.3117836734875126</v>
       </c>
       <c r="F8">
-        <v>7.764504151067619</v>
+        <v>7.764619112075789</v>
       </c>
       <c r="G8">
-        <v>1.104705494443534</v>
+        <v>166.4109929827295</v>
       </c>
       <c r="H8">
-        <v>-4.570141610325147</v>
+        <v>4.701762283216694</v>
       </c>
       <c r="I8">
         <v>-0.1329274218000709</v>
@@ -774,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="N8">
-        <v>0.0002011000005950336</v>
+        <v>0.000199199999999955</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -791,16 +791,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>-0.1962730942791624</v>
+        <v>358.3094742961997</v>
       </c>
       <c r="F9">
-        <v>6.650213240563277</v>
+        <v>6.653108992982231</v>
       </c>
       <c r="G9">
-        <v>2.037832649981436</v>
+        <v>10.34417543791666</v>
       </c>
       <c r="H9">
-        <v>11.164531192518</v>
+        <v>11.34898756092533</v>
       </c>
       <c r="I9">
         <v>1.35871477809105</v>
@@ -818,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="N9">
-        <v>0.0001967000007425668</v>
+        <v>0.0002294000000002683</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -835,16 +835,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-0.01266332555811633</v>
+        <v>359.9087952833802</v>
       </c>
       <c r="F10">
-        <v>7.955229983081288</v>
+        <v>7.955240061967313</v>
       </c>
       <c r="G10">
-        <v>4.141433626420468</v>
+        <v>157.9681971760545</v>
       </c>
       <c r="H10">
-        <v>-10.2340493005517</v>
+        <v>11.04025532169292</v>
       </c>
       <c r="I10">
         <v>-0.8348238211053474</v>
@@ -862,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="N10">
-        <v>0.0001910999999381602</v>
+        <v>0.0001990999999996745</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -879,16 +879,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>-0.0001775021508017125</v>
+        <v>359.9988914452878</v>
       </c>
       <c r="F11">
-        <v>9.174219353117993</v>
+        <v>9.174219354835142</v>
       </c>
       <c r="G11">
-        <v>-0.2063673564814312</v>
+        <v>358.1430307495218</v>
       </c>
       <c r="H11">
-        <v>6.365123280089808</v>
+        <v>6.368467779345544</v>
       </c>
       <c r="I11">
         <v>1.487317718644038</v>
@@ -906,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="N11">
-        <v>0.0002226999995400547</v>
+        <v>0.0002055000000007468</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 1.0.xlsx
+++ b/tests/tests8/N 1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>П0_ист</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>Ка</t>
@@ -419,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +474,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -495,25 +507,31 @@
         <v>5.830371260094927</v>
       </c>
       <c r="I2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="J2">
         <v>15.80711097780685</v>
       </c>
       <c r="K2">
+        <v>68.54247339265717</v>
+      </c>
+      <c r="L2">
+        <v>8.584872671918331</v>
+      </c>
+      <c r="M2">
         <v>3.08823191389388</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>2.729060910379189</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2">
-        <v>0.0002322000000001267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>0.0002786999999955242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>0</v>
       </c>
@@ -539,25 +557,31 @@
         <v>7.556793614388449</v>
       </c>
       <c r="I3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="J3">
         <v>18.32782196423818</v>
       </c>
       <c r="K3">
+        <v>51.39255035826796</v>
+      </c>
+      <c r="L3">
+        <v>11.97417907952443</v>
+      </c>
+      <c r="M3">
         <v>2.16960327489259</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>2.09182259394113</v>
       </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3">
-        <v>0.0002098000000003708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>0.0002910999999983233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>0</v>
       </c>
@@ -583,25 +607,31 @@
         <v>2.2695236193924</v>
       </c>
       <c r="I4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="J4">
         <v>9.618122158119826</v>
       </c>
       <c r="K4">
+        <v>30.7469805341254</v>
+      </c>
+      <c r="L4">
+        <v>7.720010214910622</v>
+      </c>
+      <c r="M4">
         <v>1.218183197757609</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1.521597426466013</v>
       </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4">
-        <v>0.0002249000000000834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>0.0002403000000015254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>0</v>
       </c>
@@ -627,25 +657,31 @@
         <v>5.423051679847766</v>
       </c>
       <c r="I5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="J5">
         <v>15.67687823027242</v>
       </c>
       <c r="K5">
+        <v>68.18785586887223</v>
+      </c>
+      <c r="L5">
+        <v>8.083888119368744</v>
+      </c>
+      <c r="M5">
         <v>3.675302750892847</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>2.999842900154658</v>
       </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5">
-        <v>0.0002047000000002797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>0.0001996999999960281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>0</v>
       </c>
@@ -671,25 +707,31 @@
         <v>8.331378270894477</v>
       </c>
       <c r="I6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="J6">
         <v>4.673171010711503</v>
       </c>
       <c r="K6">
+        <v>150.6208932097568</v>
+      </c>
+      <c r="L6">
+        <v>4.090565225164296</v>
+      </c>
+      <c r="M6">
         <v>1.122046926656826</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.7869864724901812</v>
       </c>
-      <c r="M6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>0.000210699999999342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <v>0.0002336999999954514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>0</v>
       </c>
@@ -715,25 +757,31 @@
         <v>9.692915913598215</v>
       </c>
       <c r="I7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="J7">
         <v>22.87529985576693</v>
       </c>
       <c r="K7">
+        <v>29.15059379780928</v>
+      </c>
+      <c r="L7">
+        <v>16.36966270300921</v>
+      </c>
+      <c r="M7">
         <v>1.420685839153214</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>1.550417609888895</v>
       </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>0.0002078000000000912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>0.0002072000000055141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0</v>
       </c>
@@ -759,25 +807,31 @@
         <v>4.701762283216694</v>
       </c>
       <c r="I8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="J8">
         <v>3.973338297383755</v>
       </c>
       <c r="K8">
+        <v>97.54099324562922</v>
+      </c>
+      <c r="L8">
+        <v>2.560498079768904</v>
+      </c>
+      <c r="M8">
         <v>1.144716161163867</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1.570728289891597</v>
       </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>0.000199199999999955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <v>0.0002064999999902284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>0</v>
       </c>
@@ -803,25 +857,31 @@
         <v>11.34898756092533</v>
       </c>
       <c r="I9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="J9">
         <v>22.28974380606835</v>
       </c>
       <c r="K9">
+        <v>11.09904244088397</v>
+      </c>
+      <c r="L9">
+        <v>17.76353954509911</v>
+      </c>
+      <c r="M9">
         <v>1.640764979691545</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.890615517345162</v>
       </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>0.0002294000000002683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <v>0.0002341999999941891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>0</v>
       </c>
@@ -847,25 +907,31 @@
         <v>11.04025532169292</v>
       </c>
       <c r="I10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="J10">
         <v>11.86534188679525</v>
       </c>
       <c r="K10">
+        <v>138.5660133416299</v>
+      </c>
+      <c r="L10">
+        <v>9.259462266116531</v>
+      </c>
+      <c r="M10">
         <v>1.50484309337038</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>1.180793403833066</v>
       </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>0.0001990999999996745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>0.0002018999999791049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>0</v>
       </c>
@@ -891,22 +957,28 @@
         <v>6.368467779345544</v>
       </c>
       <c r="I11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="J11">
         <v>18.26849864379155</v>
       </c>
       <c r="K11">
+        <v>3.718574045775136</v>
+      </c>
+      <c r="L11">
+        <v>14.22595548635861</v>
+      </c>
+      <c r="M11">
         <v>1.26249189373487</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>1.46340731800432</v>
       </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>0.0002055000000007468</v>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>0.0002315000000123746</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 1.0.xlsx
+++ b/tests/tests8/N 1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
   <si>
     <t>П0_ист</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>[0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1]</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,7 @@
         <v>16</v>
       </c>
       <c r="P2">
-        <v>0.0002786999999955242</v>
+        <v>0.0003350000000068576</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -578,7 +581,7 @@
         <v>16</v>
       </c>
       <c r="P3">
-        <v>0.0002910999999983233</v>
+        <v>0.0002517000000068492</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -628,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="P4">
-        <v>0.0002403000000015254</v>
+        <v>0.0002092000000004646</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -678,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="P5">
-        <v>0.0001996999999960281</v>
+        <v>0.0001936000000171134</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -728,7 +731,7 @@
         <v>17</v>
       </c>
       <c r="P6">
-        <v>0.0002336999999954514</v>
+        <v>0.0002337000000238731</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -778,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <v>0.0002072000000055141</v>
+        <v>0.0001991000000032273</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -828,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="P8">
-        <v>0.0002064999999902284</v>
+        <v>0.0002093999999885909</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -878,7 +881,7 @@
         <v>16</v>
       </c>
       <c r="P9">
-        <v>0.0002341999999941891</v>
+        <v>0.0002164999999934025</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -928,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="P10">
-        <v>0.0002018999999791049</v>
+        <v>0.0002268000000071879</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -978,7 +981,4507 @@
         <v>16</v>
       </c>
       <c r="P11">
-        <v>0.0002315000000123746</v>
+        <v>0.0002479999999991378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>358.6684134958705</v>
+      </c>
+      <c r="F12">
+        <v>9.354551093596005</v>
+      </c>
+      <c r="G12">
+        <v>124.5031088646725</v>
+      </c>
+      <c r="H12">
+        <v>2.972687973228758</v>
+      </c>
+      <c r="I12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="J12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="K12">
+        <v>39.543771475338</v>
+      </c>
+      <c r="L12">
+        <v>6.114342071770202</v>
+      </c>
+      <c r="M12">
+        <v>1.198356804981013</v>
+      </c>
+      <c r="N12">
+        <v>0.7800085192131179</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>0.0002393000000040502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>358.2505452586948</v>
+      </c>
+      <c r="F13">
+        <v>7.797933894697874</v>
+      </c>
+      <c r="G13">
+        <v>21.60528375277081</v>
+      </c>
+      <c r="H13">
+        <v>4.729925168934283</v>
+      </c>
+      <c r="I13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="J13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="K13">
+        <v>16.12335944823071</v>
+      </c>
+      <c r="L13">
+        <v>10.88314944500931</v>
+      </c>
+      <c r="M13">
+        <v>1.525374108745398</v>
+      </c>
+      <c r="N13">
+        <v>1.678446039733912</v>
+      </c>
+      <c r="O13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13">
+        <v>0.0002445000000079744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>359.52701416851</v>
+      </c>
+      <c r="F14">
+        <v>7.830829385884113</v>
+      </c>
+      <c r="G14">
+        <v>24.2177268457038</v>
+      </c>
+      <c r="H14">
+        <v>9.471774603892241</v>
+      </c>
+      <c r="I14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="J14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="K14">
+        <v>20.31625804875453</v>
+      </c>
+      <c r="L14">
+        <v>16.61355520647346</v>
+      </c>
+      <c r="M14">
+        <v>1.433529539370257</v>
+      </c>
+      <c r="N14">
+        <v>1.224668808142969</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14">
+        <v>0.0002410000000168111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>0.7123906620505903</v>
+      </c>
+      <c r="F15">
+        <v>8.095919141621607</v>
+      </c>
+      <c r="G15">
+        <v>146.4014271886637</v>
+      </c>
+      <c r="H15">
+        <v>3.997802008866691</v>
+      </c>
+      <c r="I15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="J15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="K15">
+        <v>69.30522296579396</v>
+      </c>
+      <c r="L15">
+        <v>4.19661425993555</v>
+      </c>
+      <c r="M15">
+        <v>1.115837746235996</v>
+      </c>
+      <c r="N15">
+        <v>1.771399588566005</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <v>0.0004487999999867043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>358.448660888747</v>
+      </c>
+      <c r="F16">
+        <v>5.695918688638339</v>
+      </c>
+      <c r="G16">
+        <v>83.07024910515554</v>
+      </c>
+      <c r="H16">
+        <v>6.269012930610951</v>
+      </c>
+      <c r="I16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="J16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="K16">
+        <v>64.83985392295737</v>
+      </c>
+      <c r="L16">
+        <v>9.373433791802963</v>
+      </c>
+      <c r="M16">
+        <v>3.044200713855441</v>
+      </c>
+      <c r="N16">
+        <v>2.765975920948392</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>0.00034499999998161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0.3123284815435487</v>
+      </c>
+      <c r="F17">
+        <v>8.63062069958222</v>
+      </c>
+      <c r="G17">
+        <v>158.2676150851613</v>
+      </c>
+      <c r="H17">
+        <v>4.033162289883134</v>
+      </c>
+      <c r="I17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="J17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="K17">
+        <v>63.22878269247396</v>
+      </c>
+      <c r="L17">
+        <v>3.370855187519182</v>
+      </c>
+      <c r="M17">
+        <v>1.210955117232185</v>
+      </c>
+      <c r="N17">
+        <v>1.432998155984457</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>0.0002407000000061998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>359.872051278866</v>
+      </c>
+      <c r="F18">
+        <v>8.175094976305024</v>
+      </c>
+      <c r="G18">
+        <v>36.75834021270013</v>
+      </c>
+      <c r="H18">
+        <v>7.077936820298847</v>
+      </c>
+      <c r="I18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="J18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="K18">
+        <v>26.76251118917022</v>
+      </c>
+      <c r="L18">
+        <v>13.84668948220724</v>
+      </c>
+      <c r="M18">
+        <v>1.039714805992449</v>
+      </c>
+      <c r="N18">
+        <v>1.304015534592604</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.0002470999999957257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.7237341099787</v>
+      </c>
+      <c r="F19">
+        <v>7.828197316290734</v>
+      </c>
+      <c r="G19">
+        <v>48.33003428823915</v>
+      </c>
+      <c r="H19">
+        <v>6.976160545687845</v>
+      </c>
+      <c r="I19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="J19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="K19">
+        <v>34.42391167830388</v>
+      </c>
+      <c r="L19">
+        <v>13.06541789319296</v>
+      </c>
+      <c r="M19">
+        <v>1.355735164003625</v>
+      </c>
+      <c r="N19">
+        <v>1.484038822668119</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>0.0002385999999887645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.9205715561937</v>
+      </c>
+      <c r="F20">
+        <v>6.756137679015119</v>
+      </c>
+      <c r="G20">
+        <v>114.780249185129</v>
+      </c>
+      <c r="H20">
+        <v>4.965125797641157</v>
+      </c>
+      <c r="I20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="J20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="K20">
+        <v>75.96524749993435</v>
+      </c>
+      <c r="L20">
+        <v>6.772800799194629</v>
+      </c>
+      <c r="M20">
+        <v>1.618769196634712</v>
+      </c>
+      <c r="N20">
+        <v>2.190560198384356</v>
+      </c>
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>0.0002034999999978027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.7789967373178</v>
+      </c>
+      <c r="F21">
+        <v>7.928135402181798</v>
+      </c>
+      <c r="G21">
+        <v>14.32179546586954</v>
+      </c>
+      <c r="H21">
+        <v>9.240775329568025</v>
+      </c>
+      <c r="I21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="J21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="K21">
+        <v>13.59513162747145</v>
+      </c>
+      <c r="L21">
+        <v>16.51886162702817</v>
+      </c>
+      <c r="M21">
+        <v>1.305038651647214</v>
+      </c>
+      <c r="N21">
+        <v>1.357207589518954</v>
+      </c>
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>0.000349300000010544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>359.1161068873827</v>
+      </c>
+      <c r="F22">
+        <v>4.723596803535123</v>
+      </c>
+      <c r="G22">
+        <v>96.23337495114704</v>
+      </c>
+      <c r="H22">
+        <v>4.942084937303209</v>
+      </c>
+      <c r="I22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="J22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="K22">
+        <v>78.18564817699523</v>
+      </c>
+      <c r="L22">
+        <v>7.144372394668497</v>
+      </c>
+      <c r="M22">
+        <v>3.275678085287549</v>
+      </c>
+      <c r="N22">
+        <v>3.392930647587243</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22">
+        <v>0.000259599999992588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>0.05196424950553487</v>
+      </c>
+      <c r="F23">
+        <v>9.326548868185018</v>
+      </c>
+      <c r="G23">
+        <v>6.106466251709362</v>
+      </c>
+      <c r="H23">
+        <v>4.987617895478526</v>
+      </c>
+      <c r="I23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="J23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="K23">
+        <v>8.160361398928211</v>
+      </c>
+      <c r="L23">
+        <v>12.79087587127527</v>
+      </c>
+      <c r="M23">
+        <v>1.190816802655204</v>
+      </c>
+      <c r="N23">
+        <v>1.088540513841849</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>0.000222499999978254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0.09194991986519468</v>
+      </c>
+      <c r="F24">
+        <v>8.411828122162877</v>
+      </c>
+      <c r="G24">
+        <v>34.97715875420465</v>
+      </c>
+      <c r="H24">
+        <v>6.279922313530817</v>
+      </c>
+      <c r="I24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="J24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="K24">
+        <v>24.69296695173581</v>
+      </c>
+      <c r="L24">
+        <v>13.17495595395731</v>
+      </c>
+      <c r="M24">
+        <v>1.413208811183776</v>
+      </c>
+      <c r="N24">
+        <v>1.446673049307234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>0.00022179999999139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.3330119436465</v>
+      </c>
+      <c r="F25">
+        <v>5.427610253683942</v>
+      </c>
+      <c r="G25">
+        <v>85.33143623823302</v>
+      </c>
+      <c r="H25">
+        <v>6.534445743453198</v>
+      </c>
+      <c r="I25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="J25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="K25">
+        <v>68.86558886874549</v>
+      </c>
+      <c r="L25">
+        <v>9.566029210677758</v>
+      </c>
+      <c r="M25">
+        <v>2.277092587273479</v>
+      </c>
+      <c r="N25">
+        <v>2.85679382715341</v>
+      </c>
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>0.0002115000000060263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>358.6707878273508</v>
+      </c>
+      <c r="F26">
+        <v>8.370638514455278</v>
+      </c>
+      <c r="G26">
+        <v>172.6278488318334</v>
+      </c>
+      <c r="H26">
+        <v>9.212489520303311</v>
+      </c>
+      <c r="I26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="J26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="K26">
+        <v>155.3206353366163</v>
+      </c>
+      <c r="L26">
+        <v>5.735464678074224</v>
+      </c>
+      <c r="M26">
+        <v>2.257970961107756</v>
+      </c>
+      <c r="N26">
+        <v>0.8301055902931673</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>0.0002017999999850417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>359.7717269103339</v>
+      </c>
+      <c r="F27">
+        <v>6.945649623194284</v>
+      </c>
+      <c r="G27">
+        <v>158.9389215882944</v>
+      </c>
+      <c r="H27">
+        <v>5.960123506655237</v>
+      </c>
+      <c r="I27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="J27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="K27">
+        <v>122.2765861034769</v>
+      </c>
+      <c r="L27">
+        <v>4.391586500800243</v>
+      </c>
+      <c r="M27">
+        <v>1.703017850884625</v>
+      </c>
+      <c r="N27">
+        <v>1.897334037512211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>0.0002297000000055505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>359.80400678834</v>
+      </c>
+      <c r="F28">
+        <v>8.008167774501924</v>
+      </c>
+      <c r="G28">
+        <v>51.76643880025416</v>
+      </c>
+      <c r="H28">
+        <v>6.853895658163885</v>
+      </c>
+      <c r="I28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="J28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="K28">
+        <v>35.95725640091125</v>
+      </c>
+      <c r="L28">
+        <v>12.94914235573912</v>
+      </c>
+      <c r="M28">
+        <v>1.293881776706239</v>
+      </c>
+      <c r="N28">
+        <v>1.39641154557299</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <v>0.0002106000000026143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>358.7143945847677</v>
+      </c>
+      <c r="F29">
+        <v>6.298460175646049</v>
+      </c>
+      <c r="G29">
+        <v>69.30976011401316</v>
+      </c>
+      <c r="H29">
+        <v>7.549962441621126</v>
+      </c>
+      <c r="I29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="J29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="K29">
+        <v>54.09513208967321</v>
+      </c>
+      <c r="L29">
+        <v>11.7343988095882</v>
+      </c>
+      <c r="M29">
+        <v>2.21708800923146</v>
+      </c>
+      <c r="N29">
+        <v>2.294375620585946</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>0.0002045999999893411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.55366762213</v>
+      </c>
+      <c r="F30">
+        <v>6.16787041472935</v>
+      </c>
+      <c r="G30">
+        <v>129.5434983602848</v>
+      </c>
+      <c r="H30">
+        <v>4.717831310392532</v>
+      </c>
+      <c r="I30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="J30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="K30">
+        <v>90.55419986529438</v>
+      </c>
+      <c r="L30">
+        <v>5.488402239333651</v>
+      </c>
+      <c r="M30">
+        <v>1.939057208052225</v>
+      </c>
+      <c r="N30">
+        <v>2.392600346569331</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30">
+        <v>0.000202799999982517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>0.417482126304551</v>
+      </c>
+      <c r="F31">
+        <v>7.877663278479917</v>
+      </c>
+      <c r="G31">
+        <v>161.5345400046135</v>
+      </c>
+      <c r="H31">
+        <v>4.352748750547652</v>
+      </c>
+      <c r="I31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="J31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="K31">
+        <v>83.92569212219175</v>
+      </c>
+      <c r="L31">
+        <v>2.898518056650816</v>
+      </c>
+      <c r="M31">
+        <v>1.309403118462519</v>
+      </c>
+      <c r="N31">
+        <v>1.809844362227133</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>0.000244799999990164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>1.2640526647764</v>
+      </c>
+      <c r="F32">
+        <v>6.924675697557219</v>
+      </c>
+      <c r="G32">
+        <v>118.4182285557726</v>
+      </c>
+      <c r="H32">
+        <v>3.794684724758053</v>
+      </c>
+      <c r="I32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="J32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="K32">
+        <v>68.1217181031745</v>
+      </c>
+      <c r="L32">
+        <v>5.741637368013812</v>
+      </c>
+      <c r="M32">
+        <v>1.43593703812019</v>
+      </c>
+      <c r="N32">
+        <v>2.467066805171301</v>
+      </c>
+      <c r="O32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32">
+        <v>0.000201400000008789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0.4147572142515962</v>
+      </c>
+      <c r="F33">
+        <v>6.883863976696088</v>
+      </c>
+      <c r="G33">
+        <v>46.17781220925371</v>
+      </c>
+      <c r="H33">
+        <v>8.887446085782342</v>
+      </c>
+      <c r="I33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="J33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="K33">
+        <v>37.41971082510154</v>
+      </c>
+      <c r="L33">
+        <v>14.6712177015632</v>
+      </c>
+      <c r="M33">
+        <v>1.565786850993937</v>
+      </c>
+      <c r="N33">
+        <v>2.135033773453372</v>
+      </c>
+      <c r="O33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>0.0002101000000038766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>0.3488944509894297</v>
+      </c>
+      <c r="F34">
+        <v>7.128746478186785</v>
+      </c>
+      <c r="G34">
+        <v>160.5006663772976</v>
+      </c>
+      <c r="H34">
+        <v>4.340972102448787</v>
+      </c>
+      <c r="I34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="J34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="K34">
+        <v>97.67959631077623</v>
+      </c>
+      <c r="L34">
+        <v>2.979384320672956</v>
+      </c>
+      <c r="M34">
+        <v>1.312898913680028</v>
+      </c>
+      <c r="N34">
+        <v>1.994450291735644</v>
+      </c>
+      <c r="O34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34">
+        <v>0.0001995999999735432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0.3188535051081249</v>
+      </c>
+      <c r="F35">
+        <v>8.348769782193465</v>
+      </c>
+      <c r="G35">
+        <v>41.9916451568043</v>
+      </c>
+      <c r="H35">
+        <v>5.981255109811575</v>
+      </c>
+      <c r="I35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="J35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="K35">
+        <v>28.53991883659824</v>
+      </c>
+      <c r="L35">
+        <v>12.59772414339409</v>
+      </c>
+      <c r="M35">
+        <v>1.191770118837631</v>
+      </c>
+      <c r="N35">
+        <v>1.46641850788279</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>0.0002190000000155123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.7561648993723</v>
+      </c>
+      <c r="F36">
+        <v>8.530007199048557</v>
+      </c>
+      <c r="G36">
+        <v>4.644140217087017</v>
+      </c>
+      <c r="H36">
+        <v>9.259653291935885</v>
+      </c>
+      <c r="I36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="J36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="K36">
+        <v>6.82675453515897</v>
+      </c>
+      <c r="L36">
+        <v>17.10997770422028</v>
+      </c>
+      <c r="M36">
+        <v>1.211821756228058</v>
+      </c>
+      <c r="N36">
+        <v>1.274637587201119</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36">
+        <v>0.0002282999999749791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>1.889736710087848</v>
+      </c>
+      <c r="F37">
+        <v>7.64797756109389</v>
+      </c>
+      <c r="G37">
+        <v>86.78879619145697</v>
+      </c>
+      <c r="H37">
+        <v>3.283201646736657</v>
+      </c>
+      <c r="I37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="J37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="K37">
+        <v>45.58435597827043</v>
+      </c>
+      <c r="L37">
+        <v>7.498878067409093</v>
+      </c>
+      <c r="M37">
+        <v>1.691340730408696</v>
+      </c>
+      <c r="N37">
+        <v>2.470221101014441</v>
+      </c>
+      <c r="O37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37">
+        <v>0.0002267000000131247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>359.3235867342455</v>
+      </c>
+      <c r="F38">
+        <v>5.183566584358307</v>
+      </c>
+      <c r="G38">
+        <v>128.1536763193781</v>
+      </c>
+      <c r="H38">
+        <v>3.687164067182741</v>
+      </c>
+      <c r="I38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="J38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="K38">
+        <v>92.07877060559012</v>
+      </c>
+      <c r="L38">
+        <v>4.591593030213936</v>
+      </c>
+      <c r="M38">
+        <v>3.106263661862912</v>
+      </c>
+      <c r="N38">
+        <v>3.024314996012372</v>
+      </c>
+      <c r="O38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38">
+        <v>0.0002362999999832027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0.05446361233749655</v>
+      </c>
+      <c r="F39">
+        <v>8.107364833159705</v>
+      </c>
+      <c r="G39">
+        <v>172.9536012864693</v>
+      </c>
+      <c r="H39">
+        <v>6.364895768587173</v>
+      </c>
+      <c r="I39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="J39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="K39">
+        <v>134.6465794262116</v>
+      </c>
+      <c r="L39">
+        <v>2.972953224090695</v>
+      </c>
+      <c r="M39">
+        <v>1.221885033033839</v>
+      </c>
+      <c r="N39">
+        <v>1.59615959471262</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <v>0.0005693000000235315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>358.9912943518833</v>
+      </c>
+      <c r="F40">
+        <v>6.583293562602349</v>
+      </c>
+      <c r="G40">
+        <v>63.05068641622636</v>
+      </c>
+      <c r="H40">
+        <v>8.238564553218492</v>
+      </c>
+      <c r="I40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="J40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="K40">
+        <v>49.43642709454351</v>
+      </c>
+      <c r="L40">
+        <v>12.98862797186758</v>
+      </c>
+      <c r="M40">
+        <v>1.995778885141079</v>
+      </c>
+      <c r="N40">
+        <v>2.125447910810124</v>
+      </c>
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40">
+        <v>0.0006042999999920085</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>358.5951604339781</v>
+      </c>
+      <c r="F41">
+        <v>5.29132757547059</v>
+      </c>
+      <c r="G41">
+        <v>88.65257484892967</v>
+      </c>
+      <c r="H41">
+        <v>5.560019537884489</v>
+      </c>
+      <c r="I41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="J41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="K41">
+        <v>69.84448460157439</v>
+      </c>
+      <c r="L41">
+        <v>8.213920944727429</v>
+      </c>
+      <c r="M41">
+        <v>3.306359488679423</v>
+      </c>
+      <c r="N41">
+        <v>3.084497462852428</v>
+      </c>
+      <c r="O41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41">
+        <v>0.0002262000000143871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>0.6075476972112318</v>
+      </c>
+      <c r="F42">
+        <v>8.95521389551077</v>
+      </c>
+      <c r="G42">
+        <v>76.4076851900281</v>
+      </c>
+      <c r="H42">
+        <v>2.492917379596825</v>
+      </c>
+      <c r="I42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="J42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="K42">
+        <v>30.6534036525087</v>
+      </c>
+      <c r="L42">
+        <v>8.185114881590566</v>
+      </c>
+      <c r="M42">
+        <v>1.160238999248396</v>
+      </c>
+      <c r="N42">
+        <v>1.519803789990108</v>
+      </c>
+      <c r="O42" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42">
+        <v>0.0002375999999912892</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0.2707123230673222</v>
+      </c>
+      <c r="F43">
+        <v>9.017094671711263</v>
+      </c>
+      <c r="G43">
+        <v>44.06854684824889</v>
+      </c>
+      <c r="H43">
+        <v>2.439180677285655</v>
+      </c>
+      <c r="I43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="J43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="K43">
+        <v>20.90939953606481</v>
+      </c>
+      <c r="L43">
+        <v>9.103199872148188</v>
+      </c>
+      <c r="M43">
+        <v>1.137617516442109</v>
+      </c>
+      <c r="N43">
+        <v>1.392146298517599</v>
+      </c>
+      <c r="O43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43">
+        <v>0.0002010999999981777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>359.5032858469888</v>
+      </c>
+      <c r="F44">
+        <v>6.597852592823693</v>
+      </c>
+      <c r="G44">
+        <v>61.94168250517152</v>
+      </c>
+      <c r="H44">
+        <v>8.686566501137246</v>
+      </c>
+      <c r="I44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="J44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="K44">
+        <v>49.25342360230874</v>
+      </c>
+      <c r="L44">
+        <v>13.61134594138158</v>
+      </c>
+      <c r="M44">
+        <v>1.765421715468777</v>
+      </c>
+      <c r="N44">
+        <v>2.134177702449558</v>
+      </c>
+      <c r="O44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44">
+        <v>0.0001943999999980406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.7426000746553</v>
+      </c>
+      <c r="F45">
+        <v>8.093902255174255</v>
+      </c>
+      <c r="G45">
+        <v>17.15188509815981</v>
+      </c>
+      <c r="H45">
+        <v>8.226911262538128</v>
+      </c>
+      <c r="I45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="J45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="K45">
+        <v>15.17975314506921</v>
+      </c>
+      <c r="L45">
+        <v>15.44975062437615</v>
+      </c>
+      <c r="M45">
+        <v>1.24369175348378</v>
+      </c>
+      <c r="N45">
+        <v>1.238358695112628</v>
+      </c>
+      <c r="O45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45">
+        <v>0.0002278000000046632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0.7506147172558701</v>
+      </c>
+      <c r="F46">
+        <v>8.833921451143906</v>
+      </c>
+      <c r="G46">
+        <v>160.9398438083396</v>
+      </c>
+      <c r="H46">
+        <v>3.496290895078988</v>
+      </c>
+      <c r="I46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="J46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="K46">
+        <v>49.71787094105484</v>
+      </c>
+      <c r="L46">
+        <v>3.481959850593856</v>
+      </c>
+      <c r="M46">
+        <v>1.315415580035111</v>
+      </c>
+      <c r="N46">
+        <v>1.598168157464402</v>
+      </c>
+      <c r="O46" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46">
+        <v>0.0001991999999972904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>359.9736252271504</v>
+      </c>
+      <c r="F47">
+        <v>9.240313616548063</v>
+      </c>
+      <c r="G47">
+        <v>178.9368738667274</v>
+      </c>
+      <c r="H47">
+        <v>8.661252596121766</v>
+      </c>
+      <c r="I47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="J47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="K47">
+        <v>160.1655035024625</v>
+      </c>
+      <c r="L47">
+        <v>4.005376139719485</v>
+      </c>
+      <c r="M47">
+        <v>1.067399200170777</v>
+      </c>
+      <c r="N47">
+        <v>0.6657669945935463</v>
+      </c>
+      <c r="O47" t="s">
+        <v>18</v>
+      </c>
+      <c r="P47">
+        <v>0.0001992999999913536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>359.4151241601295</v>
+      </c>
+      <c r="F48">
+        <v>5.286847668422929</v>
+      </c>
+      <c r="G48">
+        <v>141.3285666920392</v>
+      </c>
+      <c r="H48">
+        <v>4.039646443663911</v>
+      </c>
+      <c r="I48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="J48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="K48">
+        <v>105.0478311233511</v>
+      </c>
+      <c r="L48">
+        <v>4.292710949200687</v>
+      </c>
+      <c r="M48">
+        <v>2.828779694033274</v>
+      </c>
+      <c r="N48">
+        <v>2.563836864102635</v>
+      </c>
+      <c r="O48" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48">
+        <v>0.0001926999999852796</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0.8480094757661352</v>
+      </c>
+      <c r="F49">
+        <v>8.379317236384949</v>
+      </c>
+      <c r="G49">
+        <v>17.43013636899273</v>
+      </c>
+      <c r="H49">
+        <v>8.938652143408117</v>
+      </c>
+      <c r="I49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="J49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="K49">
+        <v>15.73728578110748</v>
+      </c>
+      <c r="L49">
+        <v>16.6188452646383</v>
+      </c>
+      <c r="M49">
+        <v>1.36083609456637</v>
+      </c>
+      <c r="N49">
+        <v>1.937238133602887</v>
+      </c>
+      <c r="O49" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49">
+        <v>0.0001991000000032273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>0.9936313199284542</v>
+      </c>
+      <c r="F50">
+        <v>9.484716784371711</v>
+      </c>
+      <c r="G50">
+        <v>357.6099840401476</v>
+      </c>
+      <c r="H50">
+        <v>7.67442496296795</v>
+      </c>
+      <c r="I50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="J50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="K50">
+        <v>3.386711009954795</v>
+      </c>
+      <c r="L50">
+        <v>16.09633831389797</v>
+      </c>
+      <c r="M50">
+        <v>1.331127348135483</v>
+      </c>
+      <c r="N50">
+        <v>2.179601505130966</v>
+      </c>
+      <c r="O50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50">
+        <v>0.0002344000000107371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>1.043159078206592</v>
+      </c>
+      <c r="F51">
+        <v>8.57933859488892</v>
+      </c>
+      <c r="G51">
+        <v>53.70270837109518</v>
+      </c>
+      <c r="H51">
+        <v>3.685555946211226</v>
+      </c>
+      <c r="I51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="J51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="K51">
+        <v>29.68673982896039</v>
+      </c>
+      <c r="L51">
+        <v>9.875914722984808</v>
+      </c>
+      <c r="M51">
+        <v>1.164968484119507</v>
+      </c>
+      <c r="N51">
+        <v>1.761996896898114</v>
+      </c>
+      <c r="O51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51">
+        <v>0.0002253000000109751</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>1.560352108683647</v>
+      </c>
+      <c r="F52">
+        <v>7.939710173894952</v>
+      </c>
+      <c r="G52">
+        <v>94.3747750353031</v>
+      </c>
+      <c r="H52">
+        <v>3.101984206539163</v>
+      </c>
+      <c r="I52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="J52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="K52">
+        <v>45.34896796387948</v>
+      </c>
+      <c r="L52">
+        <v>7.166410975550969</v>
+      </c>
+      <c r="M52">
+        <v>1.456489659299104</v>
+      </c>
+      <c r="N52">
+        <v>2.285541537783857</v>
+      </c>
+      <c r="O52" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52">
+        <v>0.0002642999999977746</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>0.2905031733486384</v>
+      </c>
+      <c r="F53">
+        <v>8.883304318870337</v>
+      </c>
+      <c r="G53">
+        <v>125.5744468101804</v>
+      </c>
+      <c r="H53">
+        <v>2.712554587688283</v>
+      </c>
+      <c r="I53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="J53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="K53">
+        <v>41.45580476172623</v>
+      </c>
+      <c r="L53">
+        <v>5.835029570829528</v>
+      </c>
+      <c r="M53">
+        <v>1.123120726780932</v>
+      </c>
+      <c r="N53">
+        <v>1.312630210840814</v>
+      </c>
+      <c r="O53" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53">
+        <v>0.000225099999994427</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.4805241593859</v>
+      </c>
+      <c r="F54">
+        <v>9.545642074622917</v>
+      </c>
+      <c r="G54">
+        <v>144.2394582943458</v>
+      </c>
+      <c r="H54">
+        <v>3.008355439340691</v>
+      </c>
+      <c r="I54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="J54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="K54">
+        <v>38.60759939799133</v>
+      </c>
+      <c r="L54">
+        <v>5.118094092990732</v>
+      </c>
+      <c r="M54">
+        <v>1.037699657338466</v>
+      </c>
+      <c r="N54">
+        <v>0.4950131031600797</v>
+      </c>
+      <c r="O54" t="s">
+        <v>18</v>
+      </c>
+      <c r="P54">
+        <v>0.0001986000000044896</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>359.7941351331494</v>
+      </c>
+      <c r="F55">
+        <v>6.341931156651134</v>
+      </c>
+      <c r="G55">
+        <v>155.2576010473505</v>
+      </c>
+      <c r="H55">
+        <v>4.96956083152694</v>
+      </c>
+      <c r="I55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="J55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="K55">
+        <v>114.8894022179801</v>
+      </c>
+      <c r="L55">
+        <v>4.016676452306519</v>
+      </c>
+      <c r="M55">
+        <v>1.85551282375776</v>
+      </c>
+      <c r="N55">
+        <v>2.189493897545239</v>
+      </c>
+      <c r="O55" t="s">
+        <v>16</v>
+      </c>
+      <c r="P55">
+        <v>0.000241499999987127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>1.852210744612911</v>
+      </c>
+      <c r="F56">
+        <v>7.690939348498382</v>
+      </c>
+      <c r="G56">
+        <v>76.84921336637986</v>
+      </c>
+      <c r="H56">
+        <v>3.78421550034173</v>
+      </c>
+      <c r="I56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="J56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="K56">
+        <v>43.74004876492324</v>
+      </c>
+      <c r="L56">
+        <v>8.448235459681843</v>
+      </c>
+      <c r="M56">
+        <v>1.432171185722149</v>
+      </c>
+      <c r="N56">
+        <v>2.30615151059921</v>
+      </c>
+      <c r="O56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P56">
+        <v>0.000198100000005752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>1.623731114633993</v>
+      </c>
+      <c r="F57">
+        <v>9.060317015856098</v>
+      </c>
+      <c r="G57">
+        <v>13.52123137940426</v>
+      </c>
+      <c r="H57">
+        <v>7.58615201477157</v>
+      </c>
+      <c r="I57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="J57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="K57">
+        <v>13.09001224947665</v>
+      </c>
+      <c r="L57">
+        <v>15.69932330275411</v>
+      </c>
+      <c r="M57">
+        <v>1.449782297892642</v>
+      </c>
+      <c r="N57">
+        <v>2.24804594820574</v>
+      </c>
+      <c r="O57" t="s">
+        <v>16</v>
+      </c>
+      <c r="P57">
+        <v>0.0001997000000244498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>1.037643175502579</v>
+      </c>
+      <c r="F58">
+        <v>7.150444223116574</v>
+      </c>
+      <c r="G58">
+        <v>189.2684928785576</v>
+      </c>
+      <c r="H58">
+        <v>4.285022709527357</v>
+      </c>
+      <c r="I58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="J58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="K58">
+        <v>138.9625820537508</v>
+      </c>
+      <c r="L58">
+        <v>0.7185465734663745</v>
+      </c>
+      <c r="M58">
+        <v>6.413592890358124</v>
+      </c>
+      <c r="N58">
+        <v>6.445069552306633</v>
+      </c>
+      <c r="O58" t="s">
+        <v>16</v>
+      </c>
+      <c r="P58">
+        <v>0.0001935000000230502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>0.1310521573469041</v>
+      </c>
+      <c r="F59">
+        <v>8.714684009854389</v>
+      </c>
+      <c r="G59">
+        <v>11.211320534083</v>
+      </c>
+      <c r="H59">
+        <v>4.69175570440813</v>
+      </c>
+      <c r="I59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="J59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="K59">
+        <v>11.12419119697521</v>
+      </c>
+      <c r="L59">
+        <v>11.84348876536463</v>
+      </c>
+      <c r="M59">
+        <v>1.272830590742486</v>
+      </c>
+      <c r="N59">
+        <v>1.149243709979057</v>
+      </c>
+      <c r="O59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59">
+        <v>0.0001960999999823798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0.7601861461745285</v>
+      </c>
+      <c r="F60">
+        <v>7.7426035708621</v>
+      </c>
+      <c r="G60">
+        <v>61.87593818855787</v>
+      </c>
+      <c r="H60">
+        <v>5.388174607812303</v>
+      </c>
+      <c r="I60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="J60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="K60">
+        <v>40.47890043476723</v>
+      </c>
+      <c r="L60">
+        <v>10.74538967657105</v>
+      </c>
+      <c r="M60">
+        <v>1.196302594129292</v>
+      </c>
+      <c r="N60">
+        <v>1.879410970932434</v>
+      </c>
+      <c r="O60" t="s">
+        <v>16</v>
+      </c>
+      <c r="P60">
+        <v>0.0002197999999964395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>1.669283521394728</v>
+      </c>
+      <c r="F61">
+        <v>7.908219243693907</v>
+      </c>
+      <c r="G61">
+        <v>185.1087058586121</v>
+      </c>
+      <c r="H61">
+        <v>3.74029295147777</v>
+      </c>
+      <c r="I61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="J61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="K61">
+        <v>50.74997797459876</v>
+      </c>
+      <c r="L61">
+        <v>1.292826983909951</v>
+      </c>
+      <c r="M61">
+        <v>2.743182040461235</v>
+      </c>
+      <c r="N61">
+        <v>3.524961196727241</v>
+      </c>
+      <c r="O61" t="s">
+        <v>16</v>
+      </c>
+      <c r="P61">
+        <v>0.0001942000000099142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>0.9217709932130896</v>
+      </c>
+      <c r="F62">
+        <v>8.795638009575089</v>
+      </c>
+      <c r="G62">
+        <v>56.28089451170436</v>
+      </c>
+      <c r="H62">
+        <v>3.162102294713464</v>
+      </c>
+      <c r="I62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="J62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="K62">
+        <v>28.33935302002625</v>
+      </c>
+      <c r="L62">
+        <v>9.412651622310726</v>
+      </c>
+      <c r="M62">
+        <v>1.388165780017912</v>
+      </c>
+      <c r="N62">
+        <v>1.777810578016294</v>
+      </c>
+      <c r="O62" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62">
+        <v>0.0001953999999955158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0.4314955515598153</v>
+      </c>
+      <c r="F63">
+        <v>8.56182599330784</v>
+      </c>
+      <c r="G63">
+        <v>154.337309540957</v>
+      </c>
+      <c r="H63">
+        <v>3.968839018531777</v>
+      </c>
+      <c r="I63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="J63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="K63">
+        <v>63.38411840992144</v>
+      </c>
+      <c r="L63">
+        <v>3.688338492652356</v>
+      </c>
+      <c r="M63">
+        <v>1.277913262846025</v>
+      </c>
+      <c r="N63">
+        <v>1.467589949179036</v>
+      </c>
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63">
+        <v>0.0002260000000262608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0.01232542630370722</v>
+      </c>
+      <c r="F64">
+        <v>9.208584277523437</v>
+      </c>
+      <c r="G64">
+        <v>3.487885413724894</v>
+      </c>
+      <c r="H64">
+        <v>6.789585030681411</v>
+      </c>
+      <c r="I64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="J64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="K64">
+        <v>6.463308475191682</v>
+      </c>
+      <c r="L64">
+        <v>14.81881812302108</v>
+      </c>
+      <c r="M64">
+        <v>1.053447635025733</v>
+      </c>
+      <c r="N64">
+        <v>1.159566732528523</v>
+      </c>
+      <c r="O64" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <v>0.0001998999999841544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>2.138978653518098</v>
+      </c>
+      <c r="F65">
+        <v>6.862448866782546</v>
+      </c>
+      <c r="G65">
+        <v>103.011201811037</v>
+      </c>
+      <c r="H65">
+        <v>3.406490637280627</v>
+      </c>
+      <c r="I65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="J65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="K65">
+        <v>58.45324970971927</v>
+      </c>
+      <c r="L65">
+        <v>6.347498529435371</v>
+      </c>
+      <c r="M65">
+        <v>1.738587132275866</v>
+      </c>
+      <c r="N65">
+        <v>2.810720316504943</v>
+      </c>
+      <c r="O65" t="s">
+        <v>16</v>
+      </c>
+      <c r="P65">
+        <v>0.0002435000000104992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>358.8996770607683</v>
+      </c>
+      <c r="F66">
+        <v>7.331694539858746</v>
+      </c>
+      <c r="G66">
+        <v>61.79331074436966</v>
+      </c>
+      <c r="H66">
+        <v>7.176743022985667</v>
+      </c>
+      <c r="I66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="J66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="K66">
+        <v>44.45528241179637</v>
+      </c>
+      <c r="L66">
+        <v>12.30673899776874</v>
+      </c>
+      <c r="M66">
+        <v>1.905036316525325</v>
+      </c>
+      <c r="N66">
+        <v>1.629194219066941</v>
+      </c>
+      <c r="O66" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66">
+        <v>0.0002051000000165004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0.8336648231326874</v>
+      </c>
+      <c r="F67">
+        <v>9.267767670710626</v>
+      </c>
+      <c r="G67">
+        <v>41.32020680641723</v>
+      </c>
+      <c r="H67">
+        <v>1.785267092848743</v>
+      </c>
+      <c r="I67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="J67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="K67">
+        <v>18.22663912282925</v>
+      </c>
+      <c r="L67">
+        <v>8.695663857876342</v>
+      </c>
+      <c r="M67">
+        <v>1.191227757679969</v>
+      </c>
+      <c r="N67">
+        <v>1.933237628259171</v>
+      </c>
+      <c r="O67" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67">
+        <v>0.0001922000000149637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>358.5843856359357</v>
+      </c>
+      <c r="F68">
+        <v>8.103212615474556</v>
+      </c>
+      <c r="G68">
+        <v>21.58562473791808</v>
+      </c>
+      <c r="H68">
+        <v>5.287461790078626</v>
+      </c>
+      <c r="I68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="J68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="K68">
+        <v>16.186356897751</v>
+      </c>
+      <c r="L68">
+        <v>11.85425353419574</v>
+      </c>
+      <c r="M68">
+        <v>1.37076055401176</v>
+      </c>
+      <c r="N68">
+        <v>0.8482427793947618</v>
+      </c>
+      <c r="O68" t="s">
+        <v>17</v>
+      </c>
+      <c r="P68">
+        <v>0.0001908000000128141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>358.8714778477798</v>
+      </c>
+      <c r="F69">
+        <v>5.065612330811369</v>
+      </c>
+      <c r="G69">
+        <v>88.05791205597571</v>
+      </c>
+      <c r="H69">
+        <v>5.502153409135273</v>
+      </c>
+      <c r="I69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="J69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="K69">
+        <v>70.7918066797926</v>
+      </c>
+      <c r="L69">
+        <v>8.121613288045767</v>
+      </c>
+      <c r="M69">
+        <v>3.264694868877698</v>
+      </c>
+      <c r="N69">
+        <v>3.251354845178913</v>
+      </c>
+      <c r="O69" t="s">
+        <v>16</v>
+      </c>
+      <c r="P69">
+        <v>0.0002746999999772015</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>0.9444763643716535</v>
+      </c>
+      <c r="F70">
+        <v>9.154014239824694</v>
+      </c>
+      <c r="G70">
+        <v>54.79970390393139</v>
+      </c>
+      <c r="H70">
+        <v>1.641576396411489</v>
+      </c>
+      <c r="I70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="J70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="K70">
+        <v>20.90913532823028</v>
+      </c>
+      <c r="L70">
+        <v>8.212755411799657</v>
+      </c>
+      <c r="M70">
+        <v>1.276044693530093</v>
+      </c>
+      <c r="N70">
+        <v>2.353522555544024</v>
+      </c>
+      <c r="O70" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70">
+        <v>0.0002488000000084867</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>359.0844929014519</v>
+      </c>
+      <c r="F71">
+        <v>6.99085977236482</v>
+      </c>
+      <c r="G71">
+        <v>47.54466053417097</v>
+      </c>
+      <c r="H71">
+        <v>8.944726000041586</v>
+      </c>
+      <c r="I71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="J71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="K71">
+        <v>37.69356450547916</v>
+      </c>
+      <c r="L71">
+        <v>14.68357339250345</v>
+      </c>
+      <c r="M71">
+        <v>1.654699317743739</v>
+      </c>
+      <c r="N71">
+        <v>1.751057848529247</v>
+      </c>
+      <c r="O71" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71">
+        <v>0.0001942999999755557</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.1490025916981</v>
+      </c>
+      <c r="F72">
+        <v>8.655920172413918</v>
+      </c>
+      <c r="G72">
+        <v>166.8371540924647</v>
+      </c>
+      <c r="H72">
+        <v>11.39786361503647</v>
+      </c>
+      <c r="I72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="J72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="K72">
+        <v>150.2740537900501</v>
+      </c>
+      <c r="L72">
+        <v>8.382570074743912</v>
+      </c>
+      <c r="M72">
+        <v>1.650495562468494</v>
+      </c>
+      <c r="N72">
+        <v>0.6664362492577137</v>
+      </c>
+      <c r="O72" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72">
+        <v>0.0001891999999941163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0.4306031497297935</v>
+      </c>
+      <c r="F73">
+        <v>8.763484669955961</v>
+      </c>
+      <c r="G73">
+        <v>31.33087958047092</v>
+      </c>
+      <c r="H73">
+        <v>5.255336618223819</v>
+      </c>
+      <c r="I73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="J73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="K73">
+        <v>21.38070492969873</v>
+      </c>
+      <c r="L73">
+        <v>12.38609886584657</v>
+      </c>
+      <c r="M73">
+        <v>1.196126086712788</v>
+      </c>
+      <c r="N73">
+        <v>1.500710059547712</v>
+      </c>
+      <c r="O73" t="s">
+        <v>16</v>
+      </c>
+      <c r="P73">
+        <v>0.0002525000000161981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.6814545009342</v>
+      </c>
+      <c r="F74">
+        <v>8.074669343965288</v>
+      </c>
+      <c r="G74">
+        <v>16.09487137910756</v>
+      </c>
+      <c r="H74">
+        <v>8.903740002634686</v>
+      </c>
+      <c r="I74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="J74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="K74">
+        <v>14.57216541965255</v>
+      </c>
+      <c r="L74">
+        <v>16.24650612092425</v>
+      </c>
+      <c r="M74">
+        <v>1.301352268351447</v>
+      </c>
+      <c r="N74">
+        <v>1.210693593921598</v>
+      </c>
+      <c r="O74" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74">
+        <v>0.0002116999999941527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.42318694869</v>
+      </c>
+      <c r="F75">
+        <v>6.96951075031503</v>
+      </c>
+      <c r="G75">
+        <v>112.2295548038769</v>
+      </c>
+      <c r="H75">
+        <v>5.679861252675495</v>
+      </c>
+      <c r="I75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="J75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="K75">
+        <v>76.53387970839513</v>
+      </c>
+      <c r="L75">
+        <v>7.619005069291884</v>
+      </c>
+      <c r="M75">
+        <v>1.653636676171201</v>
+      </c>
+      <c r="N75">
+        <v>1.98549849260808</v>
+      </c>
+      <c r="O75" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75">
+        <v>0.0002269999999953143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.3916545061923</v>
+      </c>
+      <c r="F76">
+        <v>7.673864457178369</v>
+      </c>
+      <c r="G76">
+        <v>32.63198066182518</v>
+      </c>
+      <c r="H76">
+        <v>9.338859423644125</v>
+      </c>
+      <c r="I76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="J76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="K76">
+        <v>26.19920404852713</v>
+      </c>
+      <c r="L76">
+        <v>16.15437946298423</v>
+      </c>
+      <c r="M76">
+        <v>1.314393223725693</v>
+      </c>
+      <c r="N76">
+        <v>1.426564473357882</v>
+      </c>
+      <c r="O76" t="s">
+        <v>16</v>
+      </c>
+      <c r="P76">
+        <v>0.0002073999999936404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>0.7095021339760793</v>
+      </c>
+      <c r="F77">
+        <v>8.835726654202929</v>
+      </c>
+      <c r="G77">
+        <v>112.5417814234915</v>
+      </c>
+      <c r="H77">
+        <v>2.639055917613284</v>
+      </c>
+      <c r="I77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="J77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="K77">
+        <v>40.03617945975839</v>
+      </c>
+      <c r="L77">
+        <v>6.536565974987564</v>
+      </c>
+      <c r="M77">
+        <v>1.216492005339392</v>
+      </c>
+      <c r="N77">
+        <v>1.699574482319602</v>
+      </c>
+      <c r="O77" t="s">
+        <v>16</v>
+      </c>
+      <c r="P77">
+        <v>0.0001952000000073895</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.0596986892811</v>
+      </c>
+      <c r="F78">
+        <v>7.049744991244389</v>
+      </c>
+      <c r="G78">
+        <v>50.78330037472062</v>
+      </c>
+      <c r="H78">
+        <v>8.859820720642711</v>
+      </c>
+      <c r="I78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="J78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="K78">
+        <v>39.79491752805849</v>
+      </c>
+      <c r="L78">
+        <v>14.51756963854492</v>
+      </c>
+      <c r="M78">
+        <v>1.650062442060731</v>
+      </c>
+      <c r="N78">
+        <v>1.736681798950201</v>
+      </c>
+      <c r="O78" t="s">
+        <v>16</v>
+      </c>
+      <c r="P78">
+        <v>0.0001968999999917287</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>359.7755551479245</v>
+      </c>
+      <c r="F79">
+        <v>8.368200914243499</v>
+      </c>
+      <c r="G79">
+        <v>166.4288481660383</v>
+      </c>
+      <c r="H79">
+        <v>8.496493075558275</v>
+      </c>
+      <c r="I79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="J79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="K79">
+        <v>139.6778625793528</v>
+      </c>
+      <c r="L79">
+        <v>5.455460766444117</v>
+      </c>
+      <c r="M79">
+        <v>1.228045976793725</v>
+      </c>
+      <c r="N79">
+        <v>1.034592357316476</v>
+      </c>
+      <c r="O79" t="s">
+        <v>16</v>
+      </c>
+      <c r="P79">
+        <v>0.0001880000000085147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.8779538627754</v>
+      </c>
+      <c r="F80">
+        <v>8.832078959100814</v>
+      </c>
+      <c r="G80">
+        <v>6.18291411333294</v>
+      </c>
+      <c r="H80">
+        <v>7.899700604281326</v>
+      </c>
+      <c r="I80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="J80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="K80">
+        <v>7.908514984592665</v>
+      </c>
+      <c r="L80">
+        <v>15.79037715754329</v>
+      </c>
+      <c r="M80">
+        <v>1.2855600370408</v>
+      </c>
+      <c r="N80">
+        <v>1.42179018818416</v>
+      </c>
+      <c r="O80" t="s">
+        <v>16</v>
+      </c>
+      <c r="P80">
+        <v>0.0002330000000085874</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>3.316358820770084</v>
+      </c>
+      <c r="F81">
+        <v>6.166350586597615</v>
+      </c>
+      <c r="G81">
+        <v>90.83383369495046</v>
+      </c>
+      <c r="H81">
+        <v>2.761805939298385</v>
+      </c>
+      <c r="I81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="J81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="K81">
+        <v>54.19999146831531</v>
+      </c>
+      <c r="L81">
+        <v>5.968689964319411</v>
+      </c>
+      <c r="M81">
+        <v>2.610709596315488</v>
+      </c>
+      <c r="N81">
+        <v>3.454640755902874</v>
+      </c>
+      <c r="O81" t="s">
+        <v>16</v>
+      </c>
+      <c r="P81">
+        <v>0.0001958000000001903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>358.1001470638519</v>
+      </c>
+      <c r="F82">
+        <v>6.171289033021255</v>
+      </c>
+      <c r="G82">
+        <v>85.92968725025983</v>
+      </c>
+      <c r="H82">
+        <v>6.423723307962132</v>
+      </c>
+      <c r="I82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="J82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="K82">
+        <v>64.65921042990843</v>
+      </c>
+      <c r="L82">
+        <v>9.57633832964642</v>
+      </c>
+      <c r="M82">
+        <v>2.850793854476293</v>
+      </c>
+      <c r="N82">
+        <v>2.426364348864415</v>
+      </c>
+      <c r="O82" t="s">
+        <v>16</v>
+      </c>
+      <c r="P82">
+        <v>0.0002726000000166096</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>1.359900342218693</v>
+      </c>
+      <c r="F83">
+        <v>8.36991446590414</v>
+      </c>
+      <c r="G83">
+        <v>65.44421839207463</v>
+      </c>
+      <c r="H83">
+        <v>4.210700224625409</v>
+      </c>
+      <c r="I83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="J83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="K83">
+        <v>37.22624281194908</v>
+      </c>
+      <c r="L83">
+        <v>9.859993626829725</v>
+      </c>
+      <c r="M83">
+        <v>1.349630198405386</v>
+      </c>
+      <c r="N83">
+        <v>1.857863599845033</v>
+      </c>
+      <c r="O83" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83">
+        <v>0.0001956999999777054</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.1593495972439</v>
+      </c>
+      <c r="F84">
+        <v>7.413694321102998</v>
+      </c>
+      <c r="G84">
+        <v>44.03268290792344</v>
+      </c>
+      <c r="H84">
+        <v>8.018688258166152</v>
+      </c>
+      <c r="I84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="J84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="K84">
+        <v>33.48728471456616</v>
+      </c>
+      <c r="L84">
+        <v>14.04604001048851</v>
+      </c>
+      <c r="M84">
+        <v>1.622766290501879</v>
+      </c>
+      <c r="N84">
+        <v>1.533137737778988</v>
+      </c>
+      <c r="O84" t="s">
+        <v>16</v>
+      </c>
+      <c r="P84">
+        <v>0.0001927000000137014</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>359.150687113963</v>
+      </c>
+      <c r="F85">
+        <v>7.403765092351075</v>
+      </c>
+      <c r="G85">
+        <v>41.15950650301389</v>
+      </c>
+      <c r="H85">
+        <v>8.357606489058037</v>
+      </c>
+      <c r="I85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="J85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="K85">
+        <v>31.84021156474039</v>
+      </c>
+      <c r="L85">
+        <v>14.52265147211478</v>
+      </c>
+      <c r="M85">
+        <v>1.516923116378596</v>
+      </c>
+      <c r="N85">
+        <v>1.537677574981327</v>
+      </c>
+      <c r="O85" t="s">
+        <v>16</v>
+      </c>
+      <c r="P85">
+        <v>0.0002336000000013883</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0.1316122019755955</v>
+      </c>
+      <c r="F86">
+        <v>8.692761490802717</v>
+      </c>
+      <c r="G86">
+        <v>4.437007171112621</v>
+      </c>
+      <c r="H86">
+        <v>6.149957805668595</v>
+      </c>
+      <c r="I86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="J86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="K86">
+        <v>7.469436567451516</v>
+      </c>
+      <c r="L86">
+        <v>13.5491813250946</v>
+      </c>
+      <c r="M86">
+        <v>1.328520242344015</v>
+      </c>
+      <c r="N86">
+        <v>1.107376535035587</v>
+      </c>
+      <c r="O86" t="s">
+        <v>16</v>
+      </c>
+      <c r="P86">
+        <v>0.0001957000000061271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>359.8231492789211</v>
+      </c>
+      <c r="F87">
+        <v>6.994194395435472</v>
+      </c>
+      <c r="G87">
+        <v>108.2125777319752</v>
+      </c>
+      <c r="H87">
+        <v>5.374414105716883</v>
+      </c>
+      <c r="I87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="J87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="K87">
+        <v>72.01212621458124</v>
+      </c>
+      <c r="L87">
+        <v>7.648940942839134</v>
+      </c>
+      <c r="M87">
+        <v>1.608603811083177</v>
+      </c>
+      <c r="N87">
+        <v>2.078299097273797</v>
+      </c>
+      <c r="O87" t="s">
+        <v>16</v>
+      </c>
+      <c r="P87">
+        <v>0.000191499999999678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>0.596285718967305</v>
+      </c>
+      <c r="F88">
+        <v>8.987615200567987</v>
+      </c>
+      <c r="G88">
+        <v>35.82411739844446</v>
+      </c>
+      <c r="H88">
+        <v>3.450508175817707</v>
+      </c>
+      <c r="I88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="J88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="K88">
+        <v>20.75955990535437</v>
+      </c>
+      <c r="L88">
+        <v>10.4034796498556</v>
+      </c>
+      <c r="M88">
+        <v>1.212227366318439</v>
+      </c>
+      <c r="N88">
+        <v>1.612823788474127</v>
+      </c>
+      <c r="O88" t="s">
+        <v>16</v>
+      </c>
+      <c r="P88">
+        <v>0.000193899999999303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>359.6276244791469</v>
+      </c>
+      <c r="F89">
+        <v>3.606053191841552</v>
+      </c>
+      <c r="G89">
+        <v>106.5944325849362</v>
+      </c>
+      <c r="H89">
+        <v>3.060570839561299</v>
+      </c>
+      <c r="I89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="J89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="K89">
+        <v>90.72785376354862</v>
+      </c>
+      <c r="L89">
+        <v>4.667113407353785</v>
+      </c>
+      <c r="M89">
+        <v>5.070962146663622</v>
+      </c>
+      <c r="N89">
+        <v>3.963870733752437</v>
+      </c>
+      <c r="O89" t="s">
+        <v>16</v>
+      </c>
+      <c r="P89">
+        <v>0.000185900000019501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.8931156958482</v>
+      </c>
+      <c r="F90">
+        <v>6.937356615350941</v>
+      </c>
+      <c r="G90">
+        <v>114.0149900615411</v>
+      </c>
+      <c r="H90">
+        <v>5.21969134159329</v>
+      </c>
+      <c r="I90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="J90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="K90">
+        <v>75.55608111685444</v>
+      </c>
+      <c r="L90">
+        <v>7.103481371064505</v>
+      </c>
+      <c r="M90">
+        <v>1.627369776202746</v>
+      </c>
+      <c r="N90">
+        <v>2.114902175790559</v>
+      </c>
+      <c r="O90" t="s">
+        <v>16</v>
+      </c>
+      <c r="P90">
+        <v>0.0002128000000141128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>1.693730026547098</v>
+      </c>
+      <c r="F91">
+        <v>7.843730571712166</v>
+      </c>
+      <c r="G91">
+        <v>95.62526870961287</v>
+      </c>
+      <c r="H91">
+        <v>3.182186874583901</v>
+      </c>
+      <c r="I91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="J91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="K91">
+        <v>47.01060683726013</v>
+      </c>
+      <c r="L91">
+        <v>7.11232758906504</v>
+      </c>
+      <c r="M91">
+        <v>1.504173212202308</v>
+      </c>
+      <c r="N91">
+        <v>2.401667603694135</v>
+      </c>
+      <c r="O91" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91">
+        <v>0.0002072999999995773</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>0.2244866681993254</v>
+      </c>
+      <c r="F92">
+        <v>8.803238237139379</v>
+      </c>
+      <c r="G92">
+        <v>23.04606682020375</v>
+      </c>
+      <c r="H92">
+        <v>3.585082395699914</v>
+      </c>
+      <c r="I92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="J92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="K92">
+        <v>15.89506120921092</v>
+      </c>
+      <c r="L92">
+        <v>10.54889616141428</v>
+      </c>
+      <c r="M92">
+        <v>1.252872405853784</v>
+      </c>
+      <c r="N92">
+        <v>1.427464971090538</v>
+      </c>
+      <c r="O92" t="s">
+        <v>16</v>
+      </c>
+      <c r="P92">
+        <v>0.0002078999999923781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>0.6061210177347658</v>
+      </c>
+      <c r="F93">
+        <v>8.726944735914049</v>
+      </c>
+      <c r="G93">
+        <v>34.21499574115629</v>
+      </c>
+      <c r="H93">
+        <v>4.59542404730265</v>
+      </c>
+      <c r="I93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="J93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="K93">
+        <v>22.2420689871813</v>
+      </c>
+      <c r="L93">
+        <v>11.52798988924946</v>
+      </c>
+      <c r="M93">
+        <v>1.147760762899823</v>
+      </c>
+      <c r="N93">
+        <v>1.589226082285183</v>
+      </c>
+      <c r="O93" t="s">
+        <v>16</v>
+      </c>
+      <c r="P93">
+        <v>0.0001958000000001903</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>359.7697007582177</v>
+      </c>
+      <c r="F94">
+        <v>8.460232682687904</v>
+      </c>
+      <c r="G94">
+        <v>160.0797100062476</v>
+      </c>
+      <c r="H94">
+        <v>10.10239424887041</v>
+      </c>
+      <c r="I94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="J94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="K94">
+        <v>136.5186233938818</v>
+      </c>
+      <c r="L94">
+        <v>7.654002938678747</v>
+      </c>
+      <c r="M94">
+        <v>1.167793834938892</v>
+      </c>
+      <c r="N94">
+        <v>0.9291151628315262</v>
+      </c>
+      <c r="O94" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94">
+        <v>0.0001880000000085147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>358.3698019196562</v>
+      </c>
+      <c r="F95">
+        <v>5.876109056075453</v>
+      </c>
+      <c r="G95">
+        <v>101.3306732567645</v>
+      </c>
+      <c r="H95">
+        <v>5.445882616619151</v>
+      </c>
+      <c r="I95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="J95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="K95">
+        <v>75.08909949220362</v>
+      </c>
+      <c r="L95">
+        <v>7.669220676524562</v>
+      </c>
+      <c r="M95">
+        <v>2.843428103423739</v>
+      </c>
+      <c r="N95">
+        <v>2.690216793466056</v>
+      </c>
+      <c r="O95" t="s">
+        <v>16</v>
+      </c>
+      <c r="P95">
+        <v>0.0002331000000026506</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.2565467844867</v>
+      </c>
+      <c r="F96">
+        <v>5.518016791793552</v>
+      </c>
+      <c r="G96">
+        <v>125.9955871719137</v>
+      </c>
+      <c r="H96">
+        <v>4.216518332407616</v>
+      </c>
+      <c r="I96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="J96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="K96">
+        <v>90.80085005283208</v>
+      </c>
+      <c r="L96">
+        <v>5.19307431149145</v>
+      </c>
+      <c r="M96">
+        <v>2.670551528818039</v>
+      </c>
+      <c r="N96">
+        <v>2.84476617371542</v>
+      </c>
+      <c r="O96" t="s">
+        <v>16</v>
+      </c>
+      <c r="P96">
+        <v>0.0002123000000153752</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>0.6642888995524697</v>
+      </c>
+      <c r="F97">
+        <v>8.992687121461637</v>
+      </c>
+      <c r="G97">
+        <v>40.33243138873368</v>
+      </c>
+      <c r="H97">
+        <v>3.490148740410318</v>
+      </c>
+      <c r="I97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="J97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="K97">
+        <v>22.61255796053826</v>
+      </c>
+      <c r="L97">
+        <v>10.36519160441382</v>
+      </c>
+      <c r="M97">
+        <v>1.132481712765395</v>
+      </c>
+      <c r="N97">
+        <v>1.520784564610606</v>
+      </c>
+      <c r="O97" t="s">
+        <v>16</v>
+      </c>
+      <c r="P97">
+        <v>0.0002149000000031265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>359.930152225234</v>
+      </c>
+      <c r="F98">
+        <v>7.412846708596507</v>
+      </c>
+      <c r="G98">
+        <v>34.69840386100672</v>
+      </c>
+      <c r="H98">
+        <v>9.396703651287858</v>
+      </c>
+      <c r="I98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="J98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="K98">
+        <v>28.31887482398317</v>
+      </c>
+      <c r="L98">
+        <v>15.97961220581096</v>
+      </c>
+      <c r="M98">
+        <v>1.449226536625302</v>
+      </c>
+      <c r="N98">
+        <v>1.760350666506063</v>
+      </c>
+      <c r="O98" t="s">
+        <v>16</v>
+      </c>
+      <c r="P98">
+        <v>0.0002013000000147258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>1.751187751292006</v>
+      </c>
+      <c r="F99">
+        <v>6.460223390109462</v>
+      </c>
+      <c r="G99">
+        <v>153.7856397934806</v>
+      </c>
+      <c r="H99">
+        <v>8.111059937299721</v>
+      </c>
+      <c r="I99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="J99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="K99">
+        <v>130.7965569699602</v>
+      </c>
+      <c r="L99">
+        <v>7.486264117802963</v>
+      </c>
+      <c r="M99">
+        <v>2.832678237782221</v>
+      </c>
+      <c r="N99">
+        <v>2.309686046461685</v>
+      </c>
+      <c r="O99" t="s">
+        <v>16</v>
+      </c>
+      <c r="P99">
+        <v>0.0005112999999994372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>359.5262829187342</v>
+      </c>
+      <c r="F100">
+        <v>5.608872484582846</v>
+      </c>
+      <c r="G100">
+        <v>129.8705644754349</v>
+      </c>
+      <c r="H100">
+        <v>4.006304815624613</v>
+      </c>
+      <c r="I100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="J100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="K100">
+        <v>91.06629206425711</v>
+      </c>
+      <c r="L100">
+        <v>4.814695449952231</v>
+      </c>
+      <c r="M100">
+        <v>2.621973273938731</v>
+      </c>
+      <c r="N100">
+        <v>2.784667501381062</v>
+      </c>
+      <c r="O100" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100">
+        <v>0.0002403000000015254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>0.1423588427019467</v>
+      </c>
+      <c r="F101">
+        <v>6.853588697338762</v>
+      </c>
+      <c r="G101">
+        <v>119.9046751845518</v>
+      </c>
+      <c r="H101">
+        <v>4.875383805336574</v>
+      </c>
+      <c r="I101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="J101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="K101">
+        <v>78.08744664060463</v>
+      </c>
+      <c r="L101">
+        <v>6.396751873635655</v>
+      </c>
+      <c r="M101">
+        <v>1.463731661859784</v>
+      </c>
+      <c r="N101">
+        <v>2.147833762499908</v>
+      </c>
+      <c r="O101" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101">
+        <v>0.0002234000000100878</v>
       </c>
     </row>
   </sheetData>
